--- a/backend/templates/UC-18gsm-290NP-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290NP-ABQR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6088979-FD2B-4E4D-B715-F668CB1598A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E2096-4EC3-4B14-AC66-203BD360FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="6" r:id="rId1"/>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1855,6 +1858,54 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,9 +1915,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1921,9 +1969,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1936,155 +1981,92 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2098,97 +2080,307 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2208,197 +2400,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3036,7 +3039,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,35 +3053,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3099,12 +3102,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3116,19 +3119,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="138"/>
-      <c r="K4" s="139"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3140,64 +3143,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="141"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="157"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="171"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136" t="s">
+      <c r="A7" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="151" t="s">
+      <c r="H7" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="152"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="159"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153" t="s">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3599,11 +3602,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="168"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="148"/>
       <c r="D39" s="35" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3638,11 +3641,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="163" t="s">
+      <c r="A40" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="164"/>
-      <c r="C40" s="165"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="145"/>
       <c r="D40" s="38">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3677,11 +3680,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="160" t="s">
+      <c r="A41" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="161"/>
-      <c r="C41" s="162"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="41">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3722,8 +3725,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3740,8 +3743,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3750,11 +3753,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="169" t="s">
+      <c r="A44" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3766,11 +3769,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3781,9 +3784,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="169"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
+      <c r="A46" s="133"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -3812,16 +3815,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3838,6 +3831,16 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
@@ -3914,7 +3917,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,35 +3928,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3974,18 +3977,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="159">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="219">
+      <c r="C4" s="184">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="181"/>
+      <c r="D4" s="185"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4003,25 +4006,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="220">
+      <c r="J4" s="172">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="221"/>
+      <c r="K4" s="173"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="163">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="164">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4039,104 +4042,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="222">
+      <c r="J5" s="174">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="223"/>
+      <c r="K5" s="175"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="211" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="207"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="200"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="180" t="s">
+      <c r="A7" s="214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="192" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="192" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="210" t="s">
+      <c r="J7" s="198"/>
+      <c r="K7" s="192" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="186" t="s">
+      <c r="A8" s="222"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="189" t="s">
+      <c r="E8" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="193"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="193" t="s">
+      <c r="G8" s="180"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="190"/>
-      <c r="K8" s="211"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="193"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="187"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="204"/>
       <c r="I9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="59">
         <v>290</v>
       </c>
-      <c r="K9" s="211"/>
+      <c r="K9" s="193"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="195"/>
+      <c r="A10" s="222"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="206"/>
       <c r="I10" s="60" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="61">
         <v>293</v>
       </c>
-      <c r="K10" s="212"/>
+      <c r="K10" s="194"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
@@ -4154,10 +4157,10 @@
       <c r="D11" s="65"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="225"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="179"/>
       <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4176,10 +4179,10 @@
       <c r="D12" s="70"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="205"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="177"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,10 +4201,10 @@
       <c r="D13" s="70"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="205"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
       <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,10 +4223,10 @@
       <c r="D14" s="70"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="205"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177"/>
       <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4242,10 +4245,10 @@
       <c r="D15" s="70"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="205"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
       <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4264,10 +4267,10 @@
       <c r="D16" s="65"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="205"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4286,10 +4289,10 @@
       <c r="D17" s="70"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="205"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="177"/>
       <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,10 +4311,10 @@
       <c r="D18" s="70"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="205"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="177"/>
       <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,10 +4333,10 @@
       <c r="D19" s="70"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="205"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="177"/>
       <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4352,10 +4355,10 @@
       <c r="D20" s="70"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="205"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="177"/>
       <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4374,10 +4377,10 @@
       <c r="D21" s="70"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="205"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="177"/>
       <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4396,10 +4399,10 @@
       <c r="D22" s="70"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="205"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="177"/>
       <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4418,10 +4421,10 @@
       <c r="D23" s="70"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="205"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="177"/>
       <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,10 +4443,10 @@
       <c r="D24" s="70"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="205"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="177"/>
       <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4462,10 +4465,10 @@
       <c r="D25" s="70"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="205"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="177"/>
       <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4484,10 +4487,10 @@
       <c r="D26" s="70"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="205"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="177"/>
       <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4506,10 +4509,10 @@
       <c r="D27" s="70"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="205"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="177"/>
       <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4528,10 +4531,10 @@
       <c r="D28" s="70"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
       <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4550,10 +4553,10 @@
       <c r="D29" s="70"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="205"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="177"/>
       <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4572,10 +4575,10 @@
       <c r="D30" s="70"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="205"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
       <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4594,10 +4597,10 @@
       <c r="D31" s="70"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="205"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
       <c r="K31" s="71"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,10 +4619,10 @@
       <c r="D32" s="70"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="205"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="177"/>
       <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4638,10 +4641,10 @@
       <c r="D33" s="70"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="205"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="177"/>
       <c r="K33" s="71"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4660,10 +4663,10 @@
       <c r="D34" s="70"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="205"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="177"/>
       <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4682,10 +4685,10 @@
       <c r="D35" s="70"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="201"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="205"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
       <c r="K35" s="71"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4704,10 +4707,10 @@
       <c r="D36" s="70"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="205"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
       <c r="K36" s="71"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4726,10 +4729,10 @@
       <c r="D37" s="70"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="205"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="177"/>
       <c r="K37" s="71"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4748,10 +4751,10 @@
       <c r="D38" s="70"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="205"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="177"/>
       <c r="K38" s="71"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4770,10 +4773,10 @@
       <c r="D39" s="70"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="205"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="177"/>
       <c r="K39" s="71"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4792,18 +4795,18 @@
       <c r="D40" s="70"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="199"/>
-      <c r="H40" s="199"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="205"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="177"/>
       <c r="K40" s="71"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="183"/>
-      <c r="C41" s="183"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
       <c r="D41" s="79" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4816,27 +4819,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="196" t="e">
+      <c r="G41" s="207" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="197"/>
-      <c r="I41" s="208" t="e">
+      <c r="H41" s="208"/>
+      <c r="I41" s="201" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="209"/>
+      <c r="J41" s="202"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="184" t="s">
+      <c r="A42" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
       <c r="D42" s="80">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4849,27 +4852,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="217">
+      <c r="G42" s="190">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="218"/>
-      <c r="I42" s="202">
+      <c r="H42" s="191"/>
+      <c r="I42" s="195">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="203"/>
+      <c r="J42" s="196"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
+      <c r="B43" s="216"/>
+      <c r="C43" s="216"/>
       <c r="D43" s="81">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4882,16 +4885,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="215">
+      <c r="G43" s="188">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="216"/>
-      <c r="I43" s="213">
+      <c r="H43" s="189"/>
+      <c r="I43" s="186">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="214"/>
+      <c r="J43" s="187"/>
       <c r="K43" s="83">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4901,8 +4904,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4919,8 +4922,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4929,11 +4932,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169" t="s">
+      <c r="A46" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4946,11 +4949,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -5005,6 +5008,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
@@ -5021,84 +5102,6 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5148,7 +5151,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K42"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5159,35 +5162,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5208,18 +5211,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="159">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="219">
+      <c r="C4" s="184">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="181"/>
+      <c r="D4" s="185"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5237,25 +5240,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="220">
+      <c r="J4" s="172">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="221"/>
+      <c r="K4" s="173"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="163">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="164">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5273,81 +5276,81 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="222">
+      <c r="J5" s="174">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="223"/>
+      <c r="K5" s="175"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="154"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="168"/>
       <c r="H6" s="119"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="210"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="192"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="180" t="s">
+      <c r="A7" s="214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="203"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="226" t="s">
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="232" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="186"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="211"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="193"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="232" t="s">
+      <c r="A8" s="222"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="238" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="189" t="s">
+      <c r="E8" s="224" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="189" t="s">
+      <c r="F8" s="224" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="189" t="s">
+      <c r="G8" s="224" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="227" t="s">
+      <c r="H8" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="211"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="193"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="188"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="211"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="222"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="193"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
@@ -5367,9 +5370,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="121"/>
       <c r="H10" s="122"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="211"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="193"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
@@ -5389,9 +5392,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="124"/>
       <c r="H11" s="125"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="211"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="193"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
@@ -5411,9 +5414,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="124"/>
       <c r="H12" s="125"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="211"/>
+      <c r="I12" s="222"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="193"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
@@ -5433,9 +5436,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="121"/>
       <c r="H13" s="125"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="211"/>
+      <c r="I13" s="222"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="193"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
@@ -5455,9 +5458,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="124"/>
       <c r="H14" s="125"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="211"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="193"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
@@ -5477,9 +5480,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="124"/>
       <c r="H15" s="125"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="211"/>
+      <c r="I15" s="222"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
@@ -5499,9 +5502,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="124"/>
       <c r="H16" s="125"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="211"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
@@ -5521,9 +5524,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="124"/>
       <c r="H17" s="125"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="211"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
@@ -5543,9 +5546,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="124"/>
       <c r="H18" s="125"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="211"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="193"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
@@ -5565,9 +5568,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="124"/>
       <c r="H19" s="125"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="211"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="193"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
@@ -5587,9 +5590,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="124"/>
       <c r="H20" s="125"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="211"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="193"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
@@ -5609,9 +5612,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="124"/>
       <c r="H21" s="125"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="211"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="193"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
@@ -5631,9 +5634,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="124"/>
       <c r="H22" s="125"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="211"/>
+      <c r="I22" s="222"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="193"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
@@ -5653,9 +5656,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="124"/>
       <c r="H23" s="125"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="211"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="193"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
@@ -5675,9 +5678,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="124"/>
       <c r="H24" s="125"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="211"/>
+      <c r="I24" s="222"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="193"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
@@ -5697,9 +5700,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="124"/>
       <c r="H25" s="125"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="211"/>
+      <c r="I25" s="222"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="193"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
@@ -5719,9 +5722,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="124"/>
       <c r="H26" s="125"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="211"/>
+      <c r="I26" s="222"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="193"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
@@ -5741,9 +5744,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="124"/>
       <c r="H27" s="125"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="211"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="193"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
@@ -5763,9 +5766,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="124"/>
       <c r="H28" s="125"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="211"/>
+      <c r="I28" s="222"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="193"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
@@ -5785,9 +5788,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="124"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="211"/>
+      <c r="I29" s="222"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="193"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
@@ -5807,9 +5810,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="124"/>
       <c r="H30" s="125"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="211"/>
+      <c r="I30" s="222"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="193"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
@@ -5829,9 +5832,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="124"/>
       <c r="H31" s="125"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="211"/>
+      <c r="I31" s="222"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
@@ -5851,9 +5854,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="124"/>
       <c r="H32" s="125"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="211"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="193"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
@@ -5873,9 +5876,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="124"/>
       <c r="H33" s="125"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="211"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="193"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
@@ -5895,9 +5898,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="124"/>
       <c r="H34" s="125"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="211"/>
+      <c r="I34" s="222"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="193"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
@@ -5917,9 +5920,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="124"/>
       <c r="H35" s="125"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="211"/>
+      <c r="I35" s="222"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="193"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
@@ -5939,9 +5942,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="124"/>
       <c r="H36" s="125"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="211"/>
+      <c r="I36" s="222"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="193"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
@@ -5961,9 +5964,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="124"/>
       <c r="H37" s="125"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="211"/>
+      <c r="I37" s="222"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="193"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
@@ -5983,9 +5986,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="124"/>
       <c r="H38" s="125"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="211"/>
+      <c r="I38" s="222"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="193"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="76">
@@ -6005,16 +6008,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="124"/>
       <c r="H39" s="125"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="211"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="193"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="237" t="s">
+      <c r="A40" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="238"/>
-      <c r="C40" s="239"/>
+      <c r="B40" s="230"/>
+      <c r="C40" s="231"/>
       <c r="D40" s="126" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -6035,16 +6038,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="186"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="211"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="204"/>
+      <c r="K40" s="193"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="164"/>
-      <c r="C41" s="165"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="145"/>
       <c r="D41" s="128">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -6065,16 +6068,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="186"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="211"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="193"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="229" t="s">
+      <c r="A42" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="230"/>
-      <c r="C42" s="231"/>
+      <c r="B42" s="236"/>
+      <c r="C42" s="237"/>
       <c r="D42" s="130">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6095,16 +6098,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="188"/>
-      <c r="J42" s="195"/>
-      <c r="K42" s="212"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="194"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6121,8 +6124,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6131,11 +6134,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6148,11 +6151,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169" t="s">
+      <c r="A46" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6177,6 +6180,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="J4:K4"/>
@@ -6193,15 +6205,6 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6253,15 +6256,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="242"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="305"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6275,37 +6278,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="241" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="293"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="243"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="211"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="193"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="243" t="s">
+      <c r="A5" s="306" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="245"/>
+      <c r="B5" s="307"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="307"/>
+      <c r="G5" s="308"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6317,14 +6320,14 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="246" t="s">
+      <c r="D6" s="262" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="247"/>
-      <c r="F6" s="248" t="s">
+      <c r="E6" s="264"/>
+      <c r="F6" s="283" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="249">
+      <c r="G6" s="287">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6337,13 +6340,13 @@
       <c r="C7" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="246">
+      <c r="D7" s="262">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="250"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="309"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6356,15 +6359,15 @@
       <c r="C8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="248">
+      <c r="D8" s="283">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="248"/>
-      <c r="F8" s="260" t="s">
+      <c r="E8" s="283"/>
+      <c r="F8" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="249">
+      <c r="G8" s="287">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6377,15 +6380,15 @@
         <f>Page1!G44</f>
         <v>461347000</v>
       </c>
-      <c r="C9" s="260" t="s">
+      <c r="C9" s="284" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="266"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="263"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="285"/>
+      <c r="G9" s="288"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6395,34 +6398,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="262"/>
-      <c r="D10" s="267"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="264"/>
+      <c r="C10" s="286"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="286"/>
+      <c r="G10" s="289"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="253" t="s">
+      <c r="B11" s="296" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="255" t="s">
+      <c r="C11" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="256"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="253" t="s">
+      <c r="D11" s="299"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="296" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="258" t="s">
+      <c r="G11" s="301" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="252"/>
-      <c r="B12" s="254"/>
+      <c r="A12" s="295"/>
+      <c r="B12" s="297"/>
       <c r="C12" s="99" t="s">
         <v>63</v>
       </c>
@@ -6432,8 +6435,8 @@
       <c r="E12" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="254"/>
-      <c r="G12" s="259"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="302"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6503,7 +6506,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="269" t="s">
+      <c r="G15" s="279" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6527,7 +6530,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="227"/>
+      <c r="G16" s="233"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -6549,7 +6552,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="227"/>
+      <c r="G17" s="233"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -6571,7 +6574,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="227"/>
+      <c r="G18" s="233"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -6593,7 +6596,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="227"/>
+      <c r="G19" s="233"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -6615,7 +6618,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="227"/>
+      <c r="G20" s="233"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -6637,7 +6640,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="227"/>
+      <c r="G21" s="233"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -6659,7 +6662,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="137"/>
+      <c r="G22" s="152"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -6757,26 +6760,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="270" t="s">
+      <c r="A27" s="276" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="271"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="272"/>
+      <c r="B27" s="277"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="277"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="277"/>
+      <c r="G27" s="278"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="273" t="s">
+      <c r="A28" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="274"/>
-      <c r="C28" s="275" t="s">
+      <c r="B28" s="261"/>
+      <c r="C28" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="276"/>
-      <c r="E28" s="277"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="282"/>
       <c r="F28" s="113" t="s">
         <v>95</v>
       </c>
@@ -6785,15 +6788,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="278" t="s">
+      <c r="A29" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="247"/>
-      <c r="C29" s="279" t="s">
+      <c r="B29" s="264"/>
+      <c r="C29" s="270" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="280"/>
-      <c r="E29" s="281"/>
+      <c r="D29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="80" t="s">
         <v>95</v>
       </c>
@@ -6802,15 +6805,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="278" t="s">
+      <c r="A30" s="265" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="247"/>
-      <c r="C30" s="279" t="s">
+      <c r="B30" s="264"/>
+      <c r="C30" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="280"/>
-      <c r="E30" s="281"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="80" t="s">
         <v>95</v>
       </c>
@@ -6819,15 +6822,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="278" t="s">
+      <c r="A31" s="265" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="247"/>
-      <c r="C31" s="279" t="s">
+      <c r="B31" s="264"/>
+      <c r="C31" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="280"/>
-      <c r="E31" s="281"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="272"/>
       <c r="F31" s="80" t="s">
         <v>95</v>
       </c>
@@ -6836,15 +6839,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="278" t="s">
+      <c r="A32" s="265" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="247"/>
-      <c r="C32" s="279" t="s">
+      <c r="B32" s="264"/>
+      <c r="C32" s="270" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="280"/>
-      <c r="E32" s="281"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="272"/>
       <c r="F32" s="80" t="s">
         <v>95</v>
       </c>
@@ -6853,15 +6856,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="278" t="s">
+      <c r="A33" s="265" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="247"/>
-      <c r="C33" s="279" t="s">
+      <c r="B33" s="264"/>
+      <c r="C33" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="280"/>
-      <c r="E33" s="281"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="272"/>
       <c r="F33" s="80" t="s">
         <v>95</v>
       </c>
@@ -6870,15 +6873,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="148"/>
-      <c r="C34" s="282" t="s">
+      <c r="B34" s="163"/>
+      <c r="C34" s="273" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="283"/>
-      <c r="E34" s="284"/>
+      <c r="D34" s="274"/>
+      <c r="E34" s="275"/>
       <c r="F34" s="114" t="s">
         <v>95</v>
       </c>
@@ -6887,26 +6890,26 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="270" t="s">
+      <c r="A35" s="276" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="271"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="272"/>
+      <c r="B35" s="277"/>
+      <c r="C35" s="277"/>
+      <c r="D35" s="277"/>
+      <c r="E35" s="277"/>
+      <c r="F35" s="277"/>
+      <c r="G35" s="278"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="288" t="s">
+      <c r="B36" s="159"/>
+      <c r="C36" s="268" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="289"/>
-      <c r="E36" s="144"/>
+      <c r="D36" s="269"/>
+      <c r="E36" s="159"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
@@ -6915,15 +6918,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="273" t="s">
+      <c r="A37" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="274"/>
-      <c r="C37" s="246" t="s">
+      <c r="B37" s="261"/>
+      <c r="C37" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="285"/>
-      <c r="E37" s="247"/>
+      <c r="D37" s="263"/>
+      <c r="E37" s="264"/>
       <c r="F37" s="106" t="s">
         <v>95</v>
       </c>
@@ -6932,15 +6935,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="278" t="s">
+      <c r="A38" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="247"/>
-      <c r="C38" s="246" t="s">
+      <c r="B38" s="264"/>
+      <c r="C38" s="262" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="285"/>
-      <c r="E38" s="247"/>
+      <c r="D38" s="263"/>
+      <c r="E38" s="264"/>
       <c r="F38" s="106" t="s">
         <v>95</v>
       </c>
@@ -6949,15 +6952,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="148"/>
-      <c r="C39" s="286" t="s">
+      <c r="B39" s="163"/>
+      <c r="C39" s="266" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="287"/>
-      <c r="E39" s="148"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="163"/>
       <c r="F39" s="1" t="s">
         <v>95</v>
       </c>
@@ -6966,50 +6969,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="294" t="s">
+      <c r="A40" s="244" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="295"/>
-      <c r="C40" s="296" t="s">
+      <c r="B40" s="245"/>
+      <c r="C40" s="246" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="297"/>
-      <c r="E40" s="298"/>
-      <c r="F40" s="296" t="s">
+      <c r="D40" s="247"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="246" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="298"/>
+      <c r="G40" s="248"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="299"/>
-      <c r="B41" s="300"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="211"/>
-      <c r="F41" s="303"/>
-      <c r="G41" s="304"/>
+      <c r="A41" s="249"/>
+      <c r="B41" s="250"/>
+      <c r="C41" s="222"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="254"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="301"/>
-      <c r="B42" s="302"/>
-      <c r="C42" s="305" t="s">
+      <c r="A42" s="251"/>
+      <c r="B42" s="252"/>
+      <c r="C42" s="255" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="306"/>
-      <c r="E42" s="307"/>
-      <c r="F42" s="305" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="257"/>
+      <c r="F42" s="255" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="307"/>
+      <c r="G42" s="257"/>
     </row>
     <row r="43" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="308"/>
-      <c r="F43" s="308"/>
-      <c r="G43" s="308"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="258"/>
+      <c r="G43" s="258"/>
     </row>
     <row r="44" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -7018,25 +7021,64 @@
       <c r="B44" s="116"/>
       <c r="C44" s="117"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="309"/>
-      <c r="F44" s="309"/>
-      <c r="G44" s="309"/>
+      <c r="E44" s="259"/>
+      <c r="F44" s="259"/>
+      <c r="G44" s="259"/>
     </row>
     <row r="45" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="290" t="s">
+      <c r="A46" s="240" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="290"/>
+      <c r="B46" s="240"/>
     </row>
     <row r="47" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="290" t="s">
+      <c r="A47" s="240" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="290"/>
+      <c r="B47" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A3:G3"/>
@@ -7053,45 +7095,6 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-290NP-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290NP-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E2096-4EC3-4B14-AC66-203BD360FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D00F0-BB63-4202-B7D4-3A4170F5A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="142">
   <si>
     <t>Sample No.</t>
   </si>
@@ -512,12 +512,6 @@
   </si>
   <si>
     <t>Swanson Plastics(India) Pvt. Ltd</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>293</t>
   </si>
   <si>
     <t>#02</t>
@@ -1435,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1858,6 +1852,123 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1867,166 +1978,133 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,108 +2125,51 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2169,29 +2190,155 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2252,273 +2399,1450 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+  <dxfs count="160">
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3039,7 +4363,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,35 +4377,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3102,12 +4426,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3119,19 +4443,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="154"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3143,28 +4467,28 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="155"/>
-      <c r="K5" s="156"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="171"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="159" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="137"/>
@@ -3178,29 +4502,29 @@
       <c r="F7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="152" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="137" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="137"/>
-      <c r="K7" s="152"/>
+      <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139" t="s">
+      <c r="A8" s="160"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3602,11 +4926,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="146" t="s">
+      <c r="A39" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="147"/>
-      <c r="C39" s="148"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="169"/>
       <c r="D39" s="35" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3641,11 +4965,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="143" t="s">
+      <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="145"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="166"/>
       <c r="D40" s="38">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3680,11 +5004,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="142"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="163"/>
       <c r="D41" s="41">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3725,8 +5049,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3743,8 +5067,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3753,11 +5077,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3769,11 +5093,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3784,9 +5108,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="A46" s="170"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -3815,6 +5139,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3831,76 +5165,50 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="13" operator="notBetween">
+      <formula>17</formula>
       <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="lessThan">
-      <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="11" operator="notBetween">
+      <formula>18</formula>
       <formula>28</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="lessThan">
-      <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="9" operator="notBetween">
+      <formula>360</formula>
       <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
-      <formula>360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="notBetween">
+      <formula>0.3</formula>
       <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
-      <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="notBetween">
-      <formula>0.6</formula>
-      <formula>1.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>0.6</formula>
       <formula>1.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I41">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="notBetween">
+      <formula>900</formula>
       <formula>1200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
-      <formula>900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J41">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="4" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K41">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3917,7 +5225,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+      <selection activeCell="G21" sqref="G21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,35 +5236,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3977,18 +5285,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="159">
+      <c r="B4" s="145">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="184">
+      <c r="C4" s="220">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="185"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4006,25 +5314,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="172">
+      <c r="J4" s="221">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="173"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="163">
+      <c r="B5" s="149">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="164">
+      <c r="C5" s="150">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4042,104 +5350,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="174">
+      <c r="J5" s="223">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="175"/>
+      <c r="K5" s="224"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="200"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="208"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="214" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="217" t="s">
+      <c r="A7" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="197" t="s">
+      <c r="E7" s="177"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="197" t="s">
+      <c r="H7" s="177"/>
+      <c r="I7" s="193" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="192" t="s">
+      <c r="J7" s="178"/>
+      <c r="K7" s="211" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="222"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="222" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="224" t="s">
+      <c r="E8" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="181" t="s">
+      <c r="F8" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="180"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="180" t="s">
+      <c r="G8" s="194"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="194" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="181"/>
-      <c r="K8" s="193"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="222"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="204"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="188"/>
       <c r="I9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="59">
         <v>290</v>
       </c>
-      <c r="K9" s="193"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="222"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="206"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="60" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="61">
         <v>293</v>
       </c>
-      <c r="K10" s="194"/>
+      <c r="K10" s="213"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
@@ -4157,10 +5465,10 @@
       <c r="D11" s="65"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="226"/>
       <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4179,10 +5487,10 @@
       <c r="D12" s="70"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="177"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="206"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,10 +5509,10 @@
       <c r="D13" s="70"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="206"/>
       <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4223,10 +5531,10 @@
       <c r="D14" s="70"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="206"/>
       <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4245,10 +5553,10 @@
       <c r="D15" s="70"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="177"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="206"/>
       <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4267,10 +5575,10 @@
       <c r="D16" s="65"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="177"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="206"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4289,10 +5597,10 @@
       <c r="D17" s="70"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="177"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="206"/>
       <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4311,10 +5619,10 @@
       <c r="D18" s="70"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="177"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="206"/>
       <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4333,10 +5641,10 @@
       <c r="D19" s="70"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="177"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="206"/>
       <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4355,10 +5663,10 @@
       <c r="D20" s="70"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="177"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="206"/>
       <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,10 +5685,10 @@
       <c r="D21" s="70"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="177"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="206"/>
       <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4399,10 +5707,10 @@
       <c r="D22" s="70"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="177"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="206"/>
       <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4421,10 +5729,10 @@
       <c r="D23" s="70"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="177"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="206"/>
       <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4443,10 +5751,10 @@
       <c r="D24" s="70"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="177"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
       <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,10 +5773,10 @@
       <c r="D25" s="70"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="177"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="206"/>
       <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4487,10 +5795,10 @@
       <c r="D26" s="70"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="177"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="206"/>
       <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4509,10 +5817,10 @@
       <c r="D27" s="70"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="177"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="206"/>
       <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4531,10 +5839,10 @@
       <c r="D28" s="70"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="206"/>
       <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4553,10 +5861,10 @@
       <c r="D29" s="70"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="177"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="206"/>
       <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,10 +5883,10 @@
       <c r="D30" s="70"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="177"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="205"/>
+      <c r="J30" s="206"/>
       <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4597,10 +5905,10 @@
       <c r="D31" s="70"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
+      <c r="G31" s="201"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="206"/>
       <c r="K31" s="71"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4619,10 +5927,10 @@
       <c r="D32" s="70"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="177"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="206"/>
       <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,10 +5949,10 @@
       <c r="D33" s="70"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
+      <c r="G33" s="201"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="206"/>
       <c r="K33" s="71"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4663,10 +5971,10 @@
       <c r="D34" s="70"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="177"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="206"/>
       <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4685,10 +5993,10 @@
       <c r="D35" s="70"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="177"/>
+      <c r="G35" s="201"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="206"/>
       <c r="K35" s="71"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4707,10 +6015,10 @@
       <c r="D36" s="70"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="206"/>
       <c r="K36" s="71"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4729,10 +6037,10 @@
       <c r="D37" s="70"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="177"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="206"/>
       <c r="K37" s="71"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4751,10 +6059,10 @@
       <c r="D38" s="70"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="177"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="206"/>
       <c r="K38" s="71"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4773,10 +6081,10 @@
       <c r="D39" s="70"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="177"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="206"/>
       <c r="K39" s="71"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4795,18 +6103,18 @@
       <c r="D40" s="70"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="210"/>
-      <c r="H40" s="210"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="177"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="206"/>
       <c r="K40" s="71"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218" t="s">
+      <c r="A41" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
       <c r="D41" s="79" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4819,27 +6127,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="207" t="e">
+      <c r="G41" s="197" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="208"/>
-      <c r="I41" s="201" t="e">
+      <c r="H41" s="198"/>
+      <c r="I41" s="209" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="202"/>
+      <c r="J41" s="210"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="220" t="s">
+      <c r="A42" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="221"/>
-      <c r="C42" s="221"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="186"/>
       <c r="D42" s="80">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4852,27 +6160,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="190">
+      <c r="G42" s="218">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="191"/>
-      <c r="I42" s="195">
+      <c r="H42" s="219"/>
+      <c r="I42" s="203">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="196"/>
+      <c r="J42" s="204"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="215" t="s">
+      <c r="A43" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="216"/>
-      <c r="C43" s="216"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
       <c r="D43" s="81">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4885,16 +6193,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="188">
+      <c r="G43" s="216">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="189"/>
-      <c r="I43" s="186">
+      <c r="H43" s="217"/>
+      <c r="I43" s="214">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="187"/>
+      <c r="J43" s="215"/>
       <c r="K43" s="83">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4904,8 +6212,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4922,8 +6230,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4932,11 +6240,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4949,11 +6257,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="133" t="s">
+      <c r="A47" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -5008,19 +6316,71 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H10"/>
     <mergeCell ref="G41:H41"/>
@@ -5037,105 +6397,53 @@
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="notBetween">
+      <formula>700</formula>
       <formula>1000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
-      <formula>700</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E43">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F43">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H19 G20:G39 G40:H43">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="notBetween">
+      <formula>45</formula>
+      <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K43">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="notBetween">
+      <formula>410</formula>
       <formula>450</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>410</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J43">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="notBetween">
+      <formula>290</formula>
+      <formula>293</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5151,7 +6459,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I6" sqref="I6:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5162,35 +6470,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5211,18 +6519,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="159">
+      <c r="B4" s="145">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="184">
+      <c r="C4" s="220">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="185"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5240,25 +6548,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="172">
+      <c r="J4" s="221">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="173"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="163">
+      <c r="B5" s="149">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="164">
+      <c r="C5" s="150">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5276,81 +6584,81 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="174">
+      <c r="J5" s="223">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="175"/>
+      <c r="K5" s="224"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="168"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="119"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="192"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="211"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="214" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="217" t="s">
+      <c r="A7" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="177"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="232" t="s">
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="222"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="193"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="222"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="238" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="224" t="s">
+      <c r="E8" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="224" t="s">
+      <c r="F8" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="224" t="s">
+      <c r="G8" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="233" t="s">
+      <c r="H8" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="222"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="193"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="223"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="193"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
@@ -5370,9 +6678,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="121"/>
       <c r="H10" s="122"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="193"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="212"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
@@ -5392,9 +6700,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="124"/>
       <c r="H11" s="125"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="193"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="212"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
@@ -5414,9 +6722,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="124"/>
       <c r="H12" s="125"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="193"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="212"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
@@ -5436,9 +6744,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="121"/>
       <c r="H13" s="125"/>
-      <c r="I13" s="222"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="193"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="212"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
@@ -5458,9 +6766,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="124"/>
       <c r="H14" s="125"/>
-      <c r="I14" s="222"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="193"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="212"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
@@ -5480,9 +6788,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="124"/>
       <c r="H15" s="125"/>
-      <c r="I15" s="222"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="193"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="212"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
@@ -5502,9 +6810,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="124"/>
       <c r="H16" s="125"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="193"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="212"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
@@ -5524,9 +6832,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="124"/>
       <c r="H17" s="125"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="193"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="212"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
@@ -5546,9 +6854,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="124"/>
       <c r="H18" s="125"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="193"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="212"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
@@ -5568,9 +6876,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="124"/>
       <c r="H19" s="125"/>
-      <c r="I19" s="222"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="193"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="212"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
@@ -5590,9 +6898,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="124"/>
       <c r="H20" s="125"/>
-      <c r="I20" s="222"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="193"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="212"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
@@ -5612,9 +6920,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="124"/>
       <c r="H21" s="125"/>
-      <c r="I21" s="222"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="193"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="212"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
@@ -5634,9 +6942,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="124"/>
       <c r="H22" s="125"/>
-      <c r="I22" s="222"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="193"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="212"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
@@ -5656,9 +6964,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="124"/>
       <c r="H23" s="125"/>
-      <c r="I23" s="222"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="193"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="212"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
@@ -5678,9 +6986,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="124"/>
       <c r="H24" s="125"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="193"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="212"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
@@ -5700,9 +7008,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="124"/>
       <c r="H25" s="125"/>
-      <c r="I25" s="222"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="193"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="212"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
@@ -5722,9 +7030,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="124"/>
       <c r="H26" s="125"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="193"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="212"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
@@ -5744,9 +7052,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="124"/>
       <c r="H27" s="125"/>
-      <c r="I27" s="222"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="193"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="212"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
@@ -5766,9 +7074,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="124"/>
       <c r="H28" s="125"/>
-      <c r="I28" s="222"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="193"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="212"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
@@ -5788,9 +7096,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="124"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="193"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="212"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
@@ -5810,9 +7118,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="124"/>
       <c r="H30" s="125"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="193"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="212"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
@@ -5832,9 +7140,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="124"/>
       <c r="H31" s="125"/>
-      <c r="I31" s="222"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="193"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="212"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
@@ -5854,9 +7162,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="124"/>
       <c r="H32" s="125"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="193"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="212"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
@@ -5876,9 +7184,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="124"/>
       <c r="H33" s="125"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="193"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="212"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
@@ -5898,9 +7206,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="124"/>
       <c r="H34" s="125"/>
-      <c r="I34" s="222"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="193"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="212"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
@@ -5920,9 +7228,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="124"/>
       <c r="H35" s="125"/>
-      <c r="I35" s="222"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="193"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="188"/>
+      <c r="K35" s="212"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
@@ -5942,9 +7250,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="124"/>
       <c r="H36" s="125"/>
-      <c r="I36" s="222"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="193"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="212"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
@@ -5964,9 +7272,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="124"/>
       <c r="H37" s="125"/>
-      <c r="I37" s="222"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="193"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="212"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
@@ -5986,9 +7294,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="124"/>
       <c r="H38" s="125"/>
-      <c r="I38" s="222"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="193"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="212"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="76">
@@ -6008,16 +7316,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="124"/>
       <c r="H39" s="125"/>
-      <c r="I39" s="222"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="193"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="212"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="229" t="s">
+      <c r="A40" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="230"/>
-      <c r="C40" s="231"/>
+      <c r="B40" s="239"/>
+      <c r="C40" s="240"/>
       <c r="D40" s="126" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -6038,16 +7346,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="222"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="193"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="212"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="145"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="128">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -6068,16 +7376,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="222"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="193"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="212"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="235" t="s">
+      <c r="A42" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="236"/>
-      <c r="C42" s="237"/>
+      <c r="B42" s="231"/>
+      <c r="C42" s="232"/>
       <c r="D42" s="130">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6098,16 +7406,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="223"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="194"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="213"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6124,8 +7432,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="135"/>
-      <c r="C44" s="135"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6134,11 +7442,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6151,11 +7459,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6180,15 +7488,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="J4:K4"/>
@@ -6205,27 +7504,36 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A40:C40"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
-      <formula>52</formula>
-      <formula>64</formula>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="notBetween">
+      <formula>53</formula>
+      <formula>65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E42">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
-      <formula>49</formula>
-      <formula>59</formula>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notBetween">
+      <formula>31</formula>
+      <formula>41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
-      <formula>-12.5</formula>
-      <formula>-4.5</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
+      <formula>-28</formula>
+      <formula>-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
@@ -6243,7 +7551,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6256,15 +7564,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="241" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="305"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6278,37 +7586,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="292" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="243"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="294"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="193"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="212"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="307"/>
-      <c r="C5" s="307"/>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="307"/>
-      <c r="G5" s="308"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="246"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6320,14 +7628,14 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="262" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="264"/>
-      <c r="F6" s="283" t="s">
+      <c r="D6" s="247" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="248"/>
+      <c r="F6" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="287">
+      <c r="G6" s="250">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6340,13 +7648,13 @@
       <c r="C7" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="262">
+      <c r="D7" s="247">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="309"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="251"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6359,15 +7667,15 @@
       <c r="C8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="283">
+      <c r="D8" s="249">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="283"/>
-      <c r="F8" s="284" t="s">
+      <c r="E8" s="249"/>
+      <c r="F8" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="287">
+      <c r="G8" s="250">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6380,15 +7688,15 @@
         <f>Page1!G44</f>
         <v>461347000</v>
       </c>
-      <c r="C9" s="284" t="s">
+      <c r="C9" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="290" t="s">
+      <c r="D9" s="266" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="291"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="288"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="264"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6398,34 +7706,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="286"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="286"/>
-      <c r="G10" s="289"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="265"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="294" t="s">
+      <c r="A11" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="296" t="s">
+      <c r="B11" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="298" t="s">
+      <c r="C11" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="300"/>
-      <c r="F11" s="296" t="s">
+      <c r="D11" s="257"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="254" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="301" t="s">
+      <c r="G11" s="259" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="295"/>
-      <c r="B12" s="297"/>
+      <c r="A12" s="253"/>
+      <c r="B12" s="255"/>
       <c r="C12" s="99" t="s">
         <v>63</v>
       </c>
@@ -6435,8 +7743,8 @@
       <c r="E12" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="297"/>
-      <c r="G12" s="302"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="260"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6506,7 +7814,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="279" t="s">
+      <c r="G15" s="270" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6530,7 +7838,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="233"/>
+      <c r="G16" s="228"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -6552,7 +7860,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="233"/>
+      <c r="G17" s="228"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -6574,7 +7882,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="233"/>
+      <c r="G18" s="228"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -6596,7 +7904,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="233"/>
+      <c r="G19" s="228"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -6618,7 +7926,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="233"/>
+      <c r="G20" s="228"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -6640,7 +7948,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="233"/>
+      <c r="G21" s="228"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -6662,7 +7970,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="152"/>
+      <c r="G22" s="138"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -6698,11 +8006,13 @@
       <c r="C24" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>142</v>
+      <c r="D24" s="39">
+        <f>Page2!J9</f>
+        <v>290</v>
+      </c>
+      <c r="E24" s="39">
+        <f>Page2!J10</f>
+        <v>293</v>
       </c>
       <c r="F24" s="39" t="e">
         <f>Page2!I41</f>
@@ -6760,26 +8070,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="276" t="s">
+      <c r="A27" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="277"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="277"/>
-      <c r="G27" s="278"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="272"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="273"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="260" t="s">
+      <c r="A28" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="261"/>
-      <c r="C28" s="280" t="s">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="282"/>
+      <c r="D28" s="277"/>
+      <c r="E28" s="278"/>
       <c r="F28" s="113" t="s">
         <v>95</v>
       </c>
@@ -6788,15 +8098,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="265" t="s">
+      <c r="A29" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="264"/>
-      <c r="C29" s="270" t="s">
+      <c r="B29" s="248"/>
+      <c r="C29" s="280" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="271"/>
-      <c r="E29" s="272"/>
+      <c r="D29" s="281"/>
+      <c r="E29" s="282"/>
       <c r="F29" s="80" t="s">
         <v>95</v>
       </c>
@@ -6805,15 +8115,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="265" t="s">
+      <c r="A30" s="279" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="264"/>
-      <c r="C30" s="270" t="s">
+      <c r="B30" s="248"/>
+      <c r="C30" s="280" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="271"/>
-      <c r="E30" s="272"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="282"/>
       <c r="F30" s="80" t="s">
         <v>95</v>
       </c>
@@ -6822,15 +8132,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="265" t="s">
+      <c r="A31" s="279" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="264"/>
-      <c r="C31" s="270" t="s">
+      <c r="B31" s="248"/>
+      <c r="C31" s="280" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="271"/>
-      <c r="E31" s="272"/>
+      <c r="D31" s="281"/>
+      <c r="E31" s="282"/>
       <c r="F31" s="80" t="s">
         <v>95</v>
       </c>
@@ -6839,15 +8149,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="265" t="s">
+      <c r="A32" s="279" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="264"/>
-      <c r="C32" s="270" t="s">
+      <c r="B32" s="248"/>
+      <c r="C32" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="271"/>
-      <c r="E32" s="272"/>
+      <c r="D32" s="281"/>
+      <c r="E32" s="282"/>
       <c r="F32" s="80" t="s">
         <v>95</v>
       </c>
@@ -6855,61 +8165,61 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="265" t="s">
+    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="264"/>
-      <c r="C33" s="270" t="s">
+      <c r="B33" s="248"/>
+      <c r="C33" s="280" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="271"/>
-      <c r="E33" s="272"/>
+      <c r="D33" s="281"/>
+      <c r="E33" s="282"/>
       <c r="F33" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="108" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="273" t="s">
+      <c r="B34" s="149"/>
+      <c r="C34" s="283" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="274"/>
-      <c r="E34" s="275"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="285"/>
       <c r="F34" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="133" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="276" t="s">
+      <c r="A35" s="271" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="277"/>
-      <c r="C35" s="277"/>
-      <c r="D35" s="277"/>
-      <c r="E35" s="277"/>
-      <c r="F35" s="277"/>
-      <c r="G35" s="278"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
+      <c r="F35" s="272"/>
+      <c r="G35" s="273"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="159"/>
-      <c r="C36" s="268" t="s">
+      <c r="B36" s="145"/>
+      <c r="C36" s="289" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="269"/>
-      <c r="E36" s="159"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
@@ -6918,15 +8228,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="260" t="s">
+      <c r="A37" s="274" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="261"/>
-      <c r="C37" s="262" t="s">
+      <c r="B37" s="275"/>
+      <c r="C37" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="263"/>
-      <c r="E37" s="264"/>
+      <c r="D37" s="286"/>
+      <c r="E37" s="248"/>
       <c r="F37" s="106" t="s">
         <v>95</v>
       </c>
@@ -6935,15 +8245,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="265" t="s">
+      <c r="A38" s="279" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="264"/>
-      <c r="C38" s="262" t="s">
+      <c r="B38" s="248"/>
+      <c r="C38" s="247" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="263"/>
-      <c r="E38" s="264"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="248"/>
       <c r="F38" s="106" t="s">
         <v>95</v>
       </c>
@@ -6952,15 +8262,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="163"/>
-      <c r="C39" s="266" t="s">
+      <c r="B39" s="149"/>
+      <c r="C39" s="287" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="267"/>
-      <c r="E39" s="163"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="149"/>
       <c r="F39" s="1" t="s">
         <v>95</v>
       </c>
@@ -6969,50 +8279,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="244" t="s">
+      <c r="A40" s="295" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="245"/>
-      <c r="C40" s="246" t="s">
+      <c r="B40" s="296"/>
+      <c r="C40" s="297" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="247"/>
-      <c r="E40" s="248"/>
-      <c r="F40" s="246" t="s">
+      <c r="D40" s="298"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="297" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="248"/>
+      <c r="G40" s="299"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="249"/>
-      <c r="B41" s="250"/>
-      <c r="C41" s="222"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="254"/>
+      <c r="A41" s="300"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="304"/>
+      <c r="G41" s="305"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="251"/>
-      <c r="B42" s="252"/>
-      <c r="C42" s="255" t="s">
+      <c r="A42" s="302"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="306" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="257"/>
-      <c r="F42" s="255" t="s">
+      <c r="D42" s="307"/>
+      <c r="E42" s="308"/>
+      <c r="F42" s="306" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="257"/>
+      <c r="G42" s="308"/>
     </row>
     <row r="43" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="258"/>
-      <c r="F43" s="258"/>
-      <c r="G43" s="258"/>
+      <c r="E43" s="309"/>
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
     </row>
     <row r="44" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -7021,64 +8331,25 @@
       <c r="B44" s="116"/>
       <c r="C44" s="117"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="259"/>
-      <c r="F44" s="259"/>
-      <c r="G44" s="259"/>
+      <c r="E44" s="310"/>
+      <c r="F44" s="310"/>
+      <c r="G44" s="310"/>
     </row>
     <row r="45" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="240" t="s">
+      <c r="A46" s="291" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="240"/>
+      <c r="B46" s="291"/>
     </row>
     <row r="47" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="240" t="s">
+      <c r="A47" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="240"/>
+      <c r="B47" s="291"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A3:G3"/>
@@ -7095,6 +8366,45 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-290NP-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290NP-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D00F0-BB63-4202-B7D4-3A4170F5A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABCA98F-3912-46E8-BE56-CA0A23ACA099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="141">
   <si>
     <t>Sample No.</t>
   </si>
@@ -512,9 +512,6 @@
   </si>
   <si>
     <t>Swanson Plastics(India) Pvt. Ltd</t>
-  </si>
-  <si>
-    <t>#02</t>
   </si>
 </sst>
 </file>
@@ -1855,6 +1852,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,9 +1909,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1921,9 +1963,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1936,155 +1975,92 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2098,97 +2074,307 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2208,329 +2394,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <strike/>
@@ -2571,457 +2442,6 @@
         <strike/>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3142,833 +2562,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4377,35 +2970,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -4426,12 +3019,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4443,19 +3036,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="155"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="166"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4467,64 +3060,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="157"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="152"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137" t="s">
+      <c r="A7" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="153"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4926,11 +3519,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="35" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -4965,11 +3558,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="166"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="146"/>
       <c r="D40" s="38">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -5004,11 +3597,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="41">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -5049,8 +3642,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -5067,8 +3660,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -5077,11 +3670,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="170" t="s">
+      <c r="A44" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -5093,11 +3686,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -5108,9 +3701,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="170"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -5139,16 +3732,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -5165,50 +3748,60 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="87" priority="13" operator="notBetween">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="notBetween">
       <formula>17</formula>
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="86" priority="11" operator="notBetween">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="notBetween">
       <formula>18</formula>
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="notBetween">
       <formula>360</formula>
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="notBetween">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="notBetween">
       <formula>0.3</formula>
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38">
-    <cfRule type="cellIs" dxfId="83" priority="1" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>0.6</formula>
       <formula>1.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I41">
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="notBetween">
       <formula>900</formula>
       <formula>1200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J41">
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K41">
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5236,35 +3829,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5285,18 +3878,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="160">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="185">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="186"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5314,25 +3907,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="221">
+      <c r="J4" s="173">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="222"/>
+      <c r="K4" s="174"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="164">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="165">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="166"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5350,104 +3943,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="223">
+      <c r="J5" s="175">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="224"/>
+      <c r="K5" s="176"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="212" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="208"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="201"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="181" t="s">
+      <c r="A7" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="204"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="193" t="s">
+      <c r="H7" s="204"/>
+      <c r="I7" s="198" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="178"/>
-      <c r="K7" s="211" t="s">
+      <c r="J7" s="199"/>
+      <c r="K7" s="193" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="187" t="s">
+      <c r="A8" s="223"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="191" t="s">
+      <c r="F8" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="194"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="194" t="s">
+      <c r="G8" s="181"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="191"/>
-      <c r="K8" s="212"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="194"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="188"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="205"/>
       <c r="I9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="59">
         <v>290</v>
       </c>
-      <c r="K9" s="212"/>
+      <c r="K9" s="194"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="207"/>
       <c r="I10" s="60" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="61">
         <v>293</v>
       </c>
-      <c r="K10" s="213"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
@@ -5465,10 +4058,10 @@
       <c r="D11" s="65"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="225"/>
-      <c r="J11" s="226"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="180"/>
       <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5487,10 +4080,10 @@
       <c r="D12" s="70"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="206"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="178"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5509,10 +4102,10 @@
       <c r="D13" s="70"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="206"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
       <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,10 +4124,10 @@
       <c r="D14" s="70"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="178"/>
       <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5553,10 +4146,10 @@
       <c r="D15" s="70"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="206"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5575,10 +4168,10 @@
       <c r="D16" s="65"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="206"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5597,10 +4190,10 @@
       <c r="D17" s="70"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="206"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="178"/>
       <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5619,10 +4212,10 @@
       <c r="D18" s="70"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="206"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="178"/>
       <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5641,10 +4234,10 @@
       <c r="D19" s="70"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="206"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="178"/>
       <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,10 +4256,10 @@
       <c r="D20" s="70"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="206"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="178"/>
       <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5685,10 +4278,10 @@
       <c r="D21" s="70"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="206"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="178"/>
       <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5707,10 +4300,10 @@
       <c r="D22" s="70"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="206"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="178"/>
       <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5729,10 +4322,10 @@
       <c r="D23" s="70"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="206"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="178"/>
       <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5751,10 +4344,10 @@
       <c r="D24" s="70"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="178"/>
       <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5773,10 +4366,10 @@
       <c r="D25" s="70"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="206"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="178"/>
       <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,10 +4388,10 @@
       <c r="D26" s="70"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
       <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5817,10 +4410,10 @@
       <c r="D27" s="70"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="206"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="178"/>
       <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,10 +4432,10 @@
       <c r="D28" s="70"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="206"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="178"/>
       <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,10 +4454,10 @@
       <c r="D29" s="70"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="206"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="178"/>
       <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5883,10 +4476,10 @@
       <c r="D30" s="70"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="201"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="206"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="178"/>
       <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5905,10 +4498,10 @@
       <c r="D31" s="70"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="201"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="206"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
       <c r="K31" s="71"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5927,10 +4520,10 @@
       <c r="D32" s="70"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="206"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="178"/>
       <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5949,10 +4542,10 @@
       <c r="D33" s="70"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="201"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="206"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="178"/>
       <c r="K33" s="71"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5971,10 +4564,10 @@
       <c r="D34" s="70"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="206"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="178"/>
       <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5993,10 +4586,10 @@
       <c r="D35" s="70"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="201"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="206"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="178"/>
       <c r="K35" s="71"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,10 +4608,10 @@
       <c r="D36" s="70"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="206"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="178"/>
       <c r="K36" s="71"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6037,10 +4630,10 @@
       <c r="D37" s="70"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="206"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="178"/>
       <c r="K37" s="71"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6059,10 +4652,10 @@
       <c r="D38" s="70"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="201"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="178"/>
       <c r="K38" s="71"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6081,10 +4674,10 @@
       <c r="D39" s="70"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="206"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="178"/>
       <c r="K39" s="71"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6103,18 +4696,18 @@
       <c r="D40" s="70"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="206"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="178"/>
       <c r="K40" s="71"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="220"/>
       <c r="D41" s="79" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -6127,27 +4720,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="197" t="e">
+      <c r="G41" s="208" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="198"/>
-      <c r="I41" s="209" t="e">
+      <c r="H41" s="209"/>
+      <c r="I41" s="202" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="210"/>
+      <c r="J41" s="203"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="185" t="s">
+      <c r="A42" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
+      <c r="B42" s="222"/>
+      <c r="C42" s="222"/>
       <c r="D42" s="80">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -6160,27 +4753,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="218">
+      <c r="G42" s="191">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="219"/>
-      <c r="I42" s="203">
+      <c r="H42" s="192"/>
+      <c r="I42" s="196">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="204"/>
+      <c r="J42" s="197"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
+      <c r="B43" s="217"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="81">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -6193,16 +4786,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="216">
+      <c r="G43" s="189">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="217"/>
-      <c r="I43" s="214">
+      <c r="H43" s="190"/>
+      <c r="I43" s="187">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="215"/>
+      <c r="J43" s="188"/>
       <c r="K43" s="83">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -6212,8 +4805,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -6230,8 +4823,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -6240,11 +4833,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -6257,11 +4850,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="170" t="s">
+      <c r="A47" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -6316,6 +4909,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
@@ -6332,118 +5003,40 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="notBetween">
       <formula>700</formula>
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E43">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F43">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H19 G20:G39 G40:H43">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="notBetween">
       <formula>45</formula>
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J43">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notBetween">
+      <formula>290</formula>
+      <formula>293</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K11:K43">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notBetween">
       <formula>410</formula>
       <formula>450</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:J43">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="notBetween">
-      <formula>290</formula>
-      <formula>293</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6470,35 +5063,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -6519,18 +5112,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="160">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="185">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="186"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -6548,25 +5141,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="221">
+      <c r="J4" s="173">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="222"/>
+      <c r="K4" s="174"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="164">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="165">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="166"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -6584,81 +5177,81 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="223">
+      <c r="J5" s="175">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="224"/>
+      <c r="K5" s="176"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="155"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="169"/>
       <c r="H6" s="119"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="211"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="193"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="181" t="s">
+      <c r="A7" s="215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="227" t="s">
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="187"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="212"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="194"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="233" t="s">
+      <c r="A8" s="223"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="239" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="225" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="228" t="s">
+      <c r="H8" s="234" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="187"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="212"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="194"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="212"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="194"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
@@ -6678,9 +5271,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="121"/>
       <c r="H10" s="122"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="212"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="194"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
@@ -6700,9 +5293,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="124"/>
       <c r="H11" s="125"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="212"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="194"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
@@ -6722,9 +5315,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="124"/>
       <c r="H12" s="125"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="212"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="194"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
@@ -6744,9 +5337,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="121"/>
       <c r="H13" s="125"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="212"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="194"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
@@ -6766,9 +5359,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="124"/>
       <c r="H14" s="125"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="212"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="194"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
@@ -6788,9 +5381,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="124"/>
       <c r="H15" s="125"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="212"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="194"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
@@ -6810,9 +5403,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="124"/>
       <c r="H16" s="125"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="212"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
@@ -6832,9 +5425,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="124"/>
       <c r="H17" s="125"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="212"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
@@ -6854,9 +5447,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="124"/>
       <c r="H18" s="125"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="212"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="194"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
@@ -6876,9 +5469,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="124"/>
       <c r="H19" s="125"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="212"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="194"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
@@ -6898,9 +5491,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="124"/>
       <c r="H20" s="125"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="212"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="194"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
@@ -6920,9 +5513,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="124"/>
       <c r="H21" s="125"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="212"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="194"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
@@ -6942,9 +5535,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="124"/>
       <c r="H22" s="125"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="212"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="194"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
@@ -6964,9 +5557,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="124"/>
       <c r="H23" s="125"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="212"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="194"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
@@ -6986,9 +5579,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="124"/>
       <c r="H24" s="125"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="212"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="194"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
@@ -7008,9 +5601,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="124"/>
       <c r="H25" s="125"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="212"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="194"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
@@ -7030,9 +5623,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="124"/>
       <c r="H26" s="125"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="212"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="194"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
@@ -7052,9 +5645,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="124"/>
       <c r="H27" s="125"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="212"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="194"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
@@ -7074,9 +5667,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="124"/>
       <c r="H28" s="125"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="212"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="194"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
@@ -7096,9 +5689,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="124"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="212"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="205"/>
+      <c r="K29" s="194"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
@@ -7118,9 +5711,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="124"/>
       <c r="H30" s="125"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="212"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="205"/>
+      <c r="K30" s="194"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
@@ -7140,9 +5733,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="124"/>
       <c r="H31" s="125"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="212"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="194"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
@@ -7162,9 +5755,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="124"/>
       <c r="H32" s="125"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="212"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="194"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
@@ -7184,9 +5777,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="124"/>
       <c r="H33" s="125"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="212"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="205"/>
+      <c r="K33" s="194"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
@@ -7206,9 +5799,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="124"/>
       <c r="H34" s="125"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="212"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="194"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
@@ -7228,9 +5821,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="124"/>
       <c r="H35" s="125"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="212"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="194"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
@@ -7250,9 +5843,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="124"/>
       <c r="H36" s="125"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="212"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="205"/>
+      <c r="K36" s="194"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
@@ -7272,9 +5865,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="124"/>
       <c r="H37" s="125"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="212"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="194"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
@@ -7294,9 +5887,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="124"/>
       <c r="H38" s="125"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="188"/>
-      <c r="K38" s="212"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="194"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="76">
@@ -7316,16 +5909,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="124"/>
       <c r="H39" s="125"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="212"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="205"/>
+      <c r="K39" s="194"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="238" t="s">
+      <c r="A40" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="240"/>
+      <c r="B40" s="231"/>
+      <c r="C40" s="232"/>
       <c r="D40" s="126" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -7346,16 +5939,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="187"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="212"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="205"/>
+      <c r="K40" s="194"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="164" t="s">
+      <c r="A41" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="165"/>
-      <c r="C41" s="166"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="146"/>
       <c r="D41" s="128">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -7376,16 +5969,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="187"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="212"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="205"/>
+      <c r="K41" s="194"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="230" t="s">
+      <c r="A42" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="231"/>
-      <c r="C42" s="232"/>
+      <c r="B42" s="237"/>
+      <c r="C42" s="238"/>
       <c r="D42" s="130">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -7406,16 +5999,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="189"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="213"/>
+      <c r="I42" s="224"/>
+      <c r="J42" s="207"/>
+      <c r="K42" s="195"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -7432,8 +6025,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -7442,11 +6035,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -7459,11 +6052,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -7488,6 +6081,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="J4:K4"/>
@@ -7504,36 +6106,27 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
       <formula>53</formula>
       <formula>65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E42">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
       <formula>31</formula>
       <formula>41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F42">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
       <formula>-28</formula>
       <formula>-20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H42">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>4</formula>
     </cfRule>
@@ -7551,7 +6144,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,15 +6157,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="243"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="306"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -7586,37 +6179,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="242" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="294"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="244"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="212"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="194"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="246"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="308"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="309"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -7628,14 +6221,15 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="247" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="249" t="s">
+      <c r="D6" s="263">
+        <f>Page1!H4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="265"/>
+      <c r="F6" s="284" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="250">
+      <c r="G6" s="288">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -7648,13 +6242,13 @@
       <c r="C7" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="247">
+      <c r="D7" s="263">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="248"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="251"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="310"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -7667,15 +6261,15 @@
       <c r="C8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="249">
+      <c r="D8" s="284">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="249"/>
-      <c r="F8" s="261" t="s">
+      <c r="E8" s="284"/>
+      <c r="F8" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="250">
+      <c r="G8" s="288">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -7688,15 +6282,15 @@
         <f>Page1!G44</f>
         <v>461347000</v>
       </c>
-      <c r="C9" s="261" t="s">
+      <c r="C9" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="266" t="s">
+      <c r="D9" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="267"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="264"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="289"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -7706,34 +6300,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="263"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="265"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="290"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="252" t="s">
+      <c r="A11" s="295" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="254" t="s">
+      <c r="B11" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="256" t="s">
+      <c r="C11" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="257"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="254" t="s">
+      <c r="D11" s="300"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="259" t="s">
+      <c r="G11" s="302" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="253"/>
-      <c r="B12" s="255"/>
+      <c r="A12" s="296"/>
+      <c r="B12" s="298"/>
       <c r="C12" s="99" t="s">
         <v>63</v>
       </c>
@@ -7743,8 +6337,8 @@
       <c r="E12" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="255"/>
-      <c r="G12" s="260"/>
+      <c r="F12" s="298"/>
+      <c r="G12" s="303"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -7814,7 +6408,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="270" t="s">
+      <c r="G15" s="280" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7838,7 +6432,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="228"/>
+      <c r="G16" s="234"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -7860,7 +6454,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="228"/>
+      <c r="G17" s="234"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -7882,7 +6476,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="228"/>
+      <c r="G18" s="234"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -7904,7 +6498,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="228"/>
+      <c r="G19" s="234"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -7926,7 +6520,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="228"/>
+      <c r="G20" s="234"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -7948,7 +6542,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="228"/>
+      <c r="G21" s="234"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -7970,7 +6564,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="153"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -8070,26 +6664,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="271" t="s">
+      <c r="A27" s="277" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="272"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
-      <c r="E27" s="272"/>
-      <c r="F27" s="272"/>
-      <c r="G27" s="273"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="279"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="274" t="s">
+      <c r="A28" s="261" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="275"/>
-      <c r="C28" s="276" t="s">
+      <c r="B28" s="262"/>
+      <c r="C28" s="281" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="277"/>
-      <c r="E28" s="278"/>
+      <c r="D28" s="282"/>
+      <c r="E28" s="283"/>
       <c r="F28" s="113" t="s">
         <v>95</v>
       </c>
@@ -8098,15 +6692,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="279" t="s">
+      <c r="A29" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="248"/>
-      <c r="C29" s="280" t="s">
+      <c r="B29" s="265"/>
+      <c r="C29" s="271" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="281"/>
-      <c r="E29" s="282"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="273"/>
       <c r="F29" s="80" t="s">
         <v>95</v>
       </c>
@@ -8115,15 +6709,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="279" t="s">
+      <c r="A30" s="266" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="248"/>
-      <c r="C30" s="280" t="s">
+      <c r="B30" s="265"/>
+      <c r="C30" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="282"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="273"/>
       <c r="F30" s="80" t="s">
         <v>95</v>
       </c>
@@ -8132,15 +6726,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="279" t="s">
+      <c r="A31" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="248"/>
-      <c r="C31" s="280" t="s">
+      <c r="B31" s="265"/>
+      <c r="C31" s="271" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="281"/>
-      <c r="E31" s="282"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="273"/>
       <c r="F31" s="80" t="s">
         <v>95</v>
       </c>
@@ -8149,15 +6743,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="279" t="s">
+      <c r="A32" s="266" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="248"/>
-      <c r="C32" s="280" t="s">
+      <c r="B32" s="265"/>
+      <c r="C32" s="271" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="281"/>
-      <c r="E32" s="282"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="273"/>
       <c r="F32" s="80" t="s">
         <v>95</v>
       </c>
@@ -8166,15 +6760,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="279" t="s">
+      <c r="A33" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="248"/>
-      <c r="C33" s="280" t="s">
+      <c r="B33" s="265"/>
+      <c r="C33" s="271" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="281"/>
-      <c r="E33" s="282"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="273"/>
       <c r="F33" s="80" t="s">
         <v>95</v>
       </c>
@@ -8183,15 +6777,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="283" t="s">
+      <c r="B34" s="164"/>
+      <c r="C34" s="274" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="284"/>
-      <c r="E34" s="285"/>
+      <c r="D34" s="275"/>
+      <c r="E34" s="276"/>
       <c r="F34" s="114" t="s">
         <v>95</v>
       </c>
@@ -8200,26 +6794,26 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="271" t="s">
+      <c r="A35" s="277" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="273"/>
+      <c r="B35" s="278"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="278"/>
+      <c r="E35" s="278"/>
+      <c r="F35" s="278"/>
+      <c r="G35" s="279"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="144" t="s">
+      <c r="A36" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="289" t="s">
+      <c r="B36" s="160"/>
+      <c r="C36" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="290"/>
-      <c r="E36" s="145"/>
+      <c r="D36" s="270"/>
+      <c r="E36" s="160"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
@@ -8228,15 +6822,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="274" t="s">
+      <c r="A37" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="275"/>
-      <c r="C37" s="247" t="s">
+      <c r="B37" s="262"/>
+      <c r="C37" s="263" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="286"/>
-      <c r="E37" s="248"/>
+      <c r="D37" s="264"/>
+      <c r="E37" s="265"/>
       <c r="F37" s="106" t="s">
         <v>95</v>
       </c>
@@ -8245,15 +6839,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="279" t="s">
+      <c r="A38" s="266" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="248"/>
-      <c r="C38" s="247" t="s">
+      <c r="B38" s="265"/>
+      <c r="C38" s="263" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="286"/>
-      <c r="E38" s="248"/>
+      <c r="D38" s="264"/>
+      <c r="E38" s="265"/>
       <c r="F38" s="106" t="s">
         <v>95</v>
       </c>
@@ -8262,15 +6856,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="287" t="s">
+      <c r="B39" s="164"/>
+      <c r="C39" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="288"/>
-      <c r="E39" s="149"/>
+      <c r="D39" s="268"/>
+      <c r="E39" s="164"/>
       <c r="F39" s="1" t="s">
         <v>95</v>
       </c>
@@ -8279,50 +6873,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="295" t="s">
+      <c r="A40" s="245" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="296"/>
-      <c r="C40" s="297" t="s">
+      <c r="B40" s="246"/>
+      <c r="C40" s="247" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="298"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="297" t="s">
+      <c r="D40" s="248"/>
+      <c r="E40" s="249"/>
+      <c r="F40" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="299"/>
+      <c r="G40" s="249"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="300"/>
-      <c r="B41" s="301"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="212"/>
-      <c r="F41" s="304"/>
-      <c r="G41" s="305"/>
+      <c r="A41" s="250"/>
+      <c r="B41" s="251"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="255"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="302"/>
-      <c r="B42" s="303"/>
-      <c r="C42" s="306" t="s">
+      <c r="A42" s="252"/>
+      <c r="B42" s="253"/>
+      <c r="C42" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="307"/>
-      <c r="E42" s="308"/>
-      <c r="F42" s="306" t="s">
+      <c r="D42" s="257"/>
+      <c r="E42" s="258"/>
+      <c r="F42" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="308"/>
+      <c r="G42" s="258"/>
     </row>
     <row r="43" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="309"/>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="259"/>
+      <c r="G43" s="259"/>
     </row>
     <row r="44" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -8331,25 +6925,64 @@
       <c r="B44" s="116"/>
       <c r="C44" s="117"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="310"/>
-      <c r="F44" s="310"/>
-      <c r="G44" s="310"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
     </row>
     <row r="45" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="291" t="s">
+      <c r="A46" s="241" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="291"/>
+      <c r="B46" s="241"/>
     </row>
     <row r="47" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="291" t="s">
+      <c r="A47" s="241" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="291"/>
+      <c r="B47" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A3:G3"/>
@@ -8366,45 +6999,6 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-290NP-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290NP-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABCA98F-3912-46E8-BE56-CA0A23ACA099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC5F9C5-F525-461F-AB34-3B428DD21338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1426,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1852,6 +1852,120 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1861,166 +1975,133 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,151 +2122,220 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2226,176 +2376,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2956,7 +2959,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,35 +2973,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3019,12 +3022,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3036,19 +3039,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="155"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="166"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3060,64 +3063,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="156"/>
-      <c r="K5" s="157"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="150"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="152"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138" t="s">
+      <c r="A7" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="167" t="s">
+      <c r="G7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="153"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140" t="s">
+      <c r="A8" s="160"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3519,11 +3522,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="148"/>
-      <c r="C39" s="149"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="169"/>
       <c r="D39" s="35" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3558,11 +3561,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="166"/>
       <c r="D40" s="38">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3597,11 +3600,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="141" t="s">
+      <c r="A41" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="143"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="163"/>
       <c r="D41" s="41">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3642,8 +3645,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3660,8 +3663,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3670,11 +3673,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3686,11 +3689,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3701,9 +3704,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="134"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
+      <c r="A46" s="170"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -3732,6 +3735,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3748,16 +3761,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="notBetween">
@@ -3829,35 +3832,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3878,18 +3881,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="160">
+      <c r="B4" s="145">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="220">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="186"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3907,25 +3910,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="173">
+      <c r="J4" s="221">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="174"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="164">
+      <c r="B5" s="149">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="165">
+      <c r="C5" s="150">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="166"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3943,104 +3946,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="175">
+      <c r="J5" s="223">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="176"/>
+      <c r="K5" s="224"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="204"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="201"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="208"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="218" t="s">
+      <c r="A7" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="198" t="s">
+      <c r="E7" s="177"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="204"/>
-      <c r="I7" s="198" t="s">
+      <c r="H7" s="177"/>
+      <c r="I7" s="193" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="199"/>
-      <c r="K7" s="193" t="s">
+      <c r="J7" s="178"/>
+      <c r="K7" s="211" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="223"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="223" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="225" t="s">
+      <c r="E8" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="182" t="s">
+      <c r="F8" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="181"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="181" t="s">
+      <c r="G8" s="194"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="194" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="182"/>
-      <c r="K8" s="194"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="223"/>
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="205"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="188"/>
       <c r="I9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="59">
         <v>290</v>
       </c>
-      <c r="K9" s="194"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="223"/>
-      <c r="B10" s="205"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="207"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="60" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="61">
         <v>293</v>
       </c>
-      <c r="K10" s="195"/>
+      <c r="K10" s="213"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
@@ -4058,10 +4061,10 @@
       <c r="D11" s="65"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="180"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="226"/>
       <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4080,10 +4083,10 @@
       <c r="D12" s="70"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="178"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="206"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4102,10 +4105,10 @@
       <c r="D13" s="70"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="178"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="206"/>
       <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4124,10 +4127,10 @@
       <c r="D14" s="70"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="178"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="206"/>
       <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4146,10 +4149,10 @@
       <c r="D15" s="70"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="178"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="206"/>
       <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,10 +4171,10 @@
       <c r="D16" s="65"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="210"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="178"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="206"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,10 +4193,10 @@
       <c r="D17" s="70"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="178"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="206"/>
       <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4212,10 +4215,10 @@
       <c r="D18" s="70"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="178"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="206"/>
       <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,10 +4237,10 @@
       <c r="D19" s="70"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="178"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="206"/>
       <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,10 +4259,10 @@
       <c r="D20" s="70"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="178"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="206"/>
       <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,10 +4281,10 @@
       <c r="D21" s="70"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="178"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="206"/>
       <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4300,10 +4303,10 @@
       <c r="D22" s="70"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="206"/>
       <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4322,10 +4325,10 @@
       <c r="D23" s="70"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="178"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="206"/>
       <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,10 +4347,10 @@
       <c r="D24" s="70"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="178"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
       <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4366,10 +4369,10 @@
       <c r="D25" s="70"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="178"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="206"/>
       <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4388,10 +4391,10 @@
       <c r="D26" s="70"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="178"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="206"/>
       <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4410,10 +4413,10 @@
       <c r="D27" s="70"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="178"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="206"/>
       <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,10 +4435,10 @@
       <c r="D28" s="70"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="178"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="206"/>
       <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4454,10 +4457,10 @@
       <c r="D29" s="70"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="178"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="206"/>
       <c r="K29" s="71"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4476,10 +4479,10 @@
       <c r="D30" s="70"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="178"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="205"/>
+      <c r="J30" s="206"/>
       <c r="K30" s="71"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,10 +4501,10 @@
       <c r="D31" s="70"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="178"/>
+      <c r="G31" s="201"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="206"/>
       <c r="K31" s="71"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,10 +4523,10 @@
       <c r="D32" s="70"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="178"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="206"/>
       <c r="K32" s="71"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4542,10 +4545,10 @@
       <c r="D33" s="70"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="178"/>
+      <c r="G33" s="201"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="206"/>
       <c r="K33" s="71"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4564,10 +4567,10 @@
       <c r="D34" s="70"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="178"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="206"/>
       <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,10 +4589,10 @@
       <c r="D35" s="70"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="178"/>
+      <c r="G35" s="201"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="206"/>
       <c r="K35" s="71"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4608,10 +4611,10 @@
       <c r="D36" s="70"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="178"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="206"/>
       <c r="K36" s="71"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,10 +4633,10 @@
       <c r="D37" s="70"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="178"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="206"/>
       <c r="K37" s="71"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4652,10 +4655,10 @@
       <c r="D38" s="70"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="178"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="206"/>
       <c r="K38" s="71"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4674,10 +4677,10 @@
       <c r="D39" s="70"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="178"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="206"/>
       <c r="K39" s="71"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4696,18 +4699,18 @@
       <c r="D40" s="70"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="178"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="206"/>
       <c r="K40" s="71"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="219" t="s">
+      <c r="A41" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
       <c r="D41" s="79" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4720,27 +4723,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="208" t="e">
+      <c r="G41" s="197" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="209"/>
-      <c r="I41" s="202" t="e">
+      <c r="H41" s="198"/>
+      <c r="I41" s="209" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="203"/>
+      <c r="J41" s="210"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="221" t="s">
+      <c r="A42" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="222"/>
-      <c r="C42" s="222"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="186"/>
       <c r="D42" s="80">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4753,27 +4756,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="191">
+      <c r="G42" s="218">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="192"/>
-      <c r="I42" s="196">
+      <c r="H42" s="219"/>
+      <c r="I42" s="203">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="197"/>
+      <c r="J42" s="204"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="216" t="s">
+      <c r="A43" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
       <c r="D43" s="81">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4786,16 +4789,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="189">
+      <c r="G43" s="216">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="190"/>
-      <c r="I43" s="187">
+      <c r="H43" s="217"/>
+      <c r="I43" s="214">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="188"/>
+      <c r="J43" s="215"/>
       <c r="K43" s="83">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4805,8 +4808,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="135"/>
-      <c r="C44" s="135"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4823,8 +4826,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4833,11 +4836,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4850,11 +4853,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="134" t="s">
+      <c r="A47" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4909,19 +4912,71 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H10"/>
     <mergeCell ref="G41:H41"/>
@@ -4938,71 +4993,19 @@
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5063,35 +5066,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5112,18 +5115,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="160">
+      <c r="B4" s="145">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="220">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="186"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5141,25 +5144,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="173">
+      <c r="J4" s="221">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="174"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="164">
+      <c r="B5" s="149">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="165">
+      <c r="C5" s="150">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="166"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5177,81 +5180,81 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="175">
+      <c r="J5" s="223">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="176"/>
+      <c r="K5" s="224"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="119"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="193"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="211"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="218" t="s">
+      <c r="A7" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="177"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="233" t="s">
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="223"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="194"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="223"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="239" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="225" t="s">
+      <c r="E8" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="225" t="s">
+      <c r="F8" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="225" t="s">
+      <c r="G8" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="234" t="s">
+      <c r="H8" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="223"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="194"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="224"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="194"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
@@ -5271,9 +5274,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="121"/>
       <c r="H10" s="122"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="194"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="212"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
@@ -5293,9 +5296,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="124"/>
       <c r="H11" s="125"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="194"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="212"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
@@ -5315,9 +5318,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="124"/>
       <c r="H12" s="125"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="194"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="212"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
@@ -5337,9 +5340,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="121"/>
       <c r="H13" s="125"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="194"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="212"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
@@ -5359,9 +5362,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="124"/>
       <c r="H14" s="125"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="194"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="212"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
@@ -5381,9 +5384,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="124"/>
       <c r="H15" s="125"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="194"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="212"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
@@ -5403,9 +5406,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="124"/>
       <c r="H16" s="125"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="194"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="212"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
@@ -5425,9 +5428,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="124"/>
       <c r="H17" s="125"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="194"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="212"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
@@ -5447,9 +5450,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="124"/>
       <c r="H18" s="125"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="194"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="212"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
@@ -5469,9 +5472,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="124"/>
       <c r="H19" s="125"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="194"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="212"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75">
@@ -5491,9 +5494,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="124"/>
       <c r="H20" s="125"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="194"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="212"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
@@ -5513,9 +5516,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="124"/>
       <c r="H21" s="125"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="194"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="212"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
@@ -5535,9 +5538,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="124"/>
       <c r="H22" s="125"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="194"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="212"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
@@ -5557,9 +5560,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="124"/>
       <c r="H23" s="125"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="194"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="212"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
@@ -5579,9 +5582,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="124"/>
       <c r="H24" s="125"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="194"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="212"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
@@ -5601,9 +5604,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="124"/>
       <c r="H25" s="125"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="194"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="212"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
@@ -5623,9 +5626,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="124"/>
       <c r="H26" s="125"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="194"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="212"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
@@ -5645,9 +5648,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="124"/>
       <c r="H27" s="125"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="194"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="212"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
@@ -5667,9 +5670,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="124"/>
       <c r="H28" s="125"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="194"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="212"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
@@ -5689,9 +5692,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="124"/>
       <c r="H29" s="125"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="205"/>
-      <c r="K29" s="194"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="212"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75">
@@ -5711,9 +5714,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="124"/>
       <c r="H30" s="125"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="194"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="212"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
@@ -5733,9 +5736,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="124"/>
       <c r="H31" s="125"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="205"/>
-      <c r="K31" s="194"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="212"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
@@ -5755,9 +5758,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="124"/>
       <c r="H32" s="125"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="205"/>
-      <c r="K32" s="194"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="212"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
@@ -5777,9 +5780,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="124"/>
       <c r="H33" s="125"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="205"/>
-      <c r="K33" s="194"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="212"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
@@ -5799,9 +5802,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="124"/>
       <c r="H34" s="125"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="205"/>
-      <c r="K34" s="194"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="212"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
@@ -5821,9 +5824,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="124"/>
       <c r="H35" s="125"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="194"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="188"/>
+      <c r="K35" s="212"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
@@ -5843,9 +5846,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="124"/>
       <c r="H36" s="125"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="205"/>
-      <c r="K36" s="194"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="212"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
@@ -5865,9 +5868,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="124"/>
       <c r="H37" s="125"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="194"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="212"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
@@ -5887,9 +5890,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="124"/>
       <c r="H38" s="125"/>
-      <c r="I38" s="223"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="194"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="188"/>
+      <c r="K38" s="212"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="76">
@@ -5909,16 +5912,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="124"/>
       <c r="H39" s="125"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="194"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="212"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="230" t="s">
+      <c r="A40" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="231"/>
-      <c r="C40" s="232"/>
+      <c r="B40" s="239"/>
+      <c r="C40" s="240"/>
       <c r="D40" s="126" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5939,16 +5942,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="223"/>
-      <c r="J40" s="205"/>
-      <c r="K40" s="194"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="212"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="144" t="s">
+      <c r="A41" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="128">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5969,16 +5972,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="223"/>
-      <c r="J41" s="205"/>
-      <c r="K41" s="194"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="212"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="236" t="s">
+      <c r="A42" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="237"/>
-      <c r="C42" s="238"/>
+      <c r="B42" s="231"/>
+      <c r="C42" s="232"/>
       <c r="D42" s="130">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5999,16 +6002,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="224"/>
-      <c r="J42" s="207"/>
-      <c r="K42" s="195"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="213"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6025,8 +6028,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6035,11 +6038,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6052,11 +6055,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6081,15 +6084,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="J4:K4"/>
@@ -6106,6 +6100,15 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A40:C40"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6144,7 +6147,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6157,15 +6160,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="241" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="306"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6179,37 +6182,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="292" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="244"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="294"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="223" t="s">
+      <c r="A4" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="194"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="212"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="308"/>
-      <c r="C5" s="308"/>
-      <c r="D5" s="308"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="308"/>
-      <c r="G5" s="309"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="246"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6221,15 +6224,15 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="263">
+      <c r="D6" s="247">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="265"/>
-      <c r="F6" s="284" t="s">
+      <c r="E6" s="248"/>
+      <c r="F6" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="288">
+      <c r="G6" s="250">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6242,13 +6245,13 @@
       <c r="C7" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="263">
+      <c r="D7" s="247">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="310"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="251"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6261,15 +6264,15 @@
       <c r="C8" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="284">
+      <c r="D8" s="249">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="285" t="s">
+      <c r="E8" s="249"/>
+      <c r="F8" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="288">
+      <c r="G8" s="250">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6282,15 +6285,15 @@
         <f>Page1!G44</f>
         <v>461347000</v>
       </c>
-      <c r="C9" s="285" t="s">
+      <c r="C9" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="291" t="s">
+      <c r="D9" s="266" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="292"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="289"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="264"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6300,34 +6303,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="290"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="265"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="295" t="s">
+      <c r="A11" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="297" t="s">
+      <c r="B11" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="299" t="s">
+      <c r="C11" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="300"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="297" t="s">
+      <c r="D11" s="257"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="254" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="302" t="s">
+      <c r="G11" s="259" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="296"/>
-      <c r="B12" s="298"/>
+      <c r="A12" s="253"/>
+      <c r="B12" s="255"/>
       <c r="C12" s="99" t="s">
         <v>63</v>
       </c>
@@ -6337,8 +6340,8 @@
       <c r="E12" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="298"/>
-      <c r="G12" s="303"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="260"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6408,7 +6411,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="280" t="s">
+      <c r="G15" s="270" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6432,7 +6435,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="234"/>
+      <c r="G16" s="228"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -6454,7 +6457,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="234"/>
+      <c r="G17" s="228"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -6476,7 +6479,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="234"/>
+      <c r="G18" s="228"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -6498,7 +6501,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="234"/>
+      <c r="G19" s="228"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -6520,7 +6523,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="234"/>
+      <c r="G20" s="228"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -6542,7 +6545,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="234"/>
+      <c r="G21" s="228"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -6564,7 +6567,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="153"/>
+      <c r="G22" s="138"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -6664,26 +6667,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="277" t="s">
+      <c r="A27" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="278"/>
-      <c r="C27" s="278"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="279"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="272"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="273"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="261" t="s">
+      <c r="A28" s="274" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="262"/>
-      <c r="C28" s="281" t="s">
+      <c r="B28" s="275"/>
+      <c r="C28" s="276" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="282"/>
-      <c r="E28" s="283"/>
+      <c r="D28" s="277"/>
+      <c r="E28" s="278"/>
       <c r="F28" s="113" t="s">
         <v>95</v>
       </c>
@@ -6692,15 +6695,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="266" t="s">
+      <c r="A29" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="265"/>
-      <c r="C29" s="271" t="s">
+      <c r="B29" s="248"/>
+      <c r="C29" s="280" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="272"/>
-      <c r="E29" s="273"/>
+      <c r="D29" s="281"/>
+      <c r="E29" s="282"/>
       <c r="F29" s="80" t="s">
         <v>95</v>
       </c>
@@ -6709,15 +6712,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="266" t="s">
+      <c r="A30" s="279" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="265"/>
-      <c r="C30" s="271" t="s">
+      <c r="B30" s="248"/>
+      <c r="C30" s="280" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="272"/>
-      <c r="E30" s="273"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="282"/>
       <c r="F30" s="80" t="s">
         <v>95</v>
       </c>
@@ -6726,15 +6729,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="266" t="s">
+      <c r="A31" s="279" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="265"/>
-      <c r="C31" s="271" t="s">
+      <c r="B31" s="248"/>
+      <c r="C31" s="280" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="272"/>
-      <c r="E31" s="273"/>
+      <c r="D31" s="281"/>
+      <c r="E31" s="282"/>
       <c r="F31" s="80" t="s">
         <v>95</v>
       </c>
@@ -6743,15 +6746,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="266" t="s">
+      <c r="A32" s="279" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="265"/>
-      <c r="C32" s="271" t="s">
+      <c r="B32" s="248"/>
+      <c r="C32" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="272"/>
-      <c r="E32" s="273"/>
+      <c r="D32" s="281"/>
+      <c r="E32" s="282"/>
       <c r="F32" s="80" t="s">
         <v>95</v>
       </c>
@@ -6760,15 +6763,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="266" t="s">
+      <c r="A33" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="265"/>
-      <c r="C33" s="271" t="s">
+      <c r="B33" s="248"/>
+      <c r="C33" s="280" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="272"/>
-      <c r="E33" s="273"/>
+      <c r="D33" s="281"/>
+      <c r="E33" s="282"/>
       <c r="F33" s="80" t="s">
         <v>95</v>
       </c>
@@ -6777,15 +6780,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="274" t="s">
+      <c r="B34" s="149"/>
+      <c r="C34" s="283" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="275"/>
-      <c r="E34" s="276"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="285"/>
       <c r="F34" s="114" t="s">
         <v>95</v>
       </c>
@@ -6794,26 +6797,26 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="277" t="s">
+      <c r="A35" s="271" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="278"/>
-      <c r="C35" s="278"/>
-      <c r="D35" s="278"/>
-      <c r="E35" s="278"/>
-      <c r="F35" s="278"/>
-      <c r="G35" s="279"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
+      <c r="F35" s="272"/>
+      <c r="G35" s="273"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="160"/>
-      <c r="C36" s="269" t="s">
+      <c r="B36" s="145"/>
+      <c r="C36" s="289" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="270"/>
-      <c r="E36" s="160"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
@@ -6822,15 +6825,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="261" t="s">
+      <c r="A37" s="274" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="262"/>
-      <c r="C37" s="263" t="s">
+      <c r="B37" s="275"/>
+      <c r="C37" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="264"/>
-      <c r="E37" s="265"/>
+      <c r="D37" s="286"/>
+      <c r="E37" s="248"/>
       <c r="F37" s="106" t="s">
         <v>95</v>
       </c>
@@ -6839,15 +6842,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="266" t="s">
+      <c r="A38" s="279" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="265"/>
-      <c r="C38" s="263" t="s">
+      <c r="B38" s="248"/>
+      <c r="C38" s="247" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="264"/>
-      <c r="E38" s="265"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="248"/>
       <c r="F38" s="106" t="s">
         <v>95</v>
       </c>
@@ -6856,15 +6859,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="164"/>
-      <c r="C39" s="267" t="s">
+      <c r="B39" s="149"/>
+      <c r="C39" s="287" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="268"/>
-      <c r="E39" s="164"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="149"/>
       <c r="F39" s="1" t="s">
         <v>95</v>
       </c>
@@ -6873,50 +6876,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="245" t="s">
+      <c r="A40" s="295" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="246"/>
-      <c r="C40" s="247" t="s">
+      <c r="B40" s="296"/>
+      <c r="C40" s="297" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="248"/>
-      <c r="E40" s="249"/>
-      <c r="F40" s="247" t="s">
+      <c r="D40" s="298"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="297" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="249"/>
-    </row>
-    <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="250"/>
-      <c r="B41" s="251"/>
-      <c r="C41" s="223"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="255"/>
-    </row>
-    <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="252"/>
-      <c r="B42" s="253"/>
-      <c r="C42" s="256" t="s">
+      <c r="G40" s="299"/>
+    </row>
+    <row r="41" spans="1:7" s="86" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="300"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="306"/>
+      <c r="D41" s="307"/>
+      <c r="E41" s="308"/>
+      <c r="F41" s="306"/>
+      <c r="G41" s="308"/>
+    </row>
+    <row r="42" spans="1:7" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="302"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="257"/>
-      <c r="E42" s="258"/>
-      <c r="F42" s="256" t="s">
+      <c r="D42" s="310"/>
+      <c r="E42" s="311"/>
+      <c r="F42" s="309" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="258"/>
+      <c r="G42" s="311"/>
     </row>
     <row r="43" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="259"/>
-      <c r="F43" s="259"/>
-      <c r="G43" s="259"/>
+      <c r="E43" s="304"/>
+      <c r="F43" s="304"/>
+      <c r="G43" s="304"/>
     </row>
     <row r="44" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -6925,64 +6928,25 @@
       <c r="B44" s="116"/>
       <c r="C44" s="117"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="260"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="260"/>
+      <c r="E44" s="305"/>
+      <c r="F44" s="305"/>
+      <c r="G44" s="305"/>
     </row>
     <row r="45" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="241" t="s">
+      <c r="A46" s="291" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="241"/>
+      <c r="B46" s="291"/>
     </row>
     <row r="47" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="241" t="s">
+      <c r="A47" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="241"/>
+      <c r="B47" s="291"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A3:G3"/>
@@ -6999,6 +6963,45 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-290NP-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290NP-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC5F9C5-F525-461F-AB34-3B428DD21338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0908E6E-45C7-44BF-A200-7C1B1B25784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1395,19 +1395,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1426,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1635,9 +1622,6 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1652,9 +1636,6 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1663,9 +1644,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1679,9 +1657,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="63" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,7 +1776,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1939,33 +1914,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1981,9 +1929,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1993,29 +1938,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2154,38 +2078,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2376,28 +2270,109 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2959,49 +2934,49 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A39" sqref="A39:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="85"/>
-    <col min="14" max="14" width="9.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="85"/>
+    <col min="12" max="12" width="10.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="81"/>
+    <col min="14" max="14" width="9.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3022,12 +2997,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3039,19 +3014,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3063,64 +3038,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="138"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137" t="s">
+      <c r="A7" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154" t="s">
+      <c r="A8" s="156"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3522,11 +3497,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="281" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
+      <c r="B39" s="282"/>
+      <c r="C39" s="283"/>
       <c r="D39" s="35" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3561,11 +3536,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="284" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="166"/>
+      <c r="B40" s="285"/>
+      <c r="C40" s="286"/>
       <c r="D40" s="38">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3600,11 +3575,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
+      <c r="B41" s="288"/>
+      <c r="C41" s="289"/>
       <c r="D41" s="41">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3645,8 +3620,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="158"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3663,8 +3638,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="159"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3673,11 +3648,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="170" t="s">
+      <c r="A44" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3689,11 +3664,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3704,9 +3679,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="170"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
+      <c r="A46" s="157"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -3821,46 +3796,46 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:H21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="85"/>
+    <col min="12" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3881,18 +3856,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="141">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="199">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3910,25 +3885,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="221">
+      <c r="J4" s="200">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="222"/>
+      <c r="K4" s="201"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="145">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3946,104 +3921,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="223">
+      <c r="J5" s="202">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="224"/>
+      <c r="K5" s="203"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="208"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="187"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="181" t="s">
+      <c r="A7" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="163"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="172" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="193" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="178"/>
-      <c r="K7" s="211" t="s">
+      <c r="J7" s="164"/>
+      <c r="K7" s="190" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="187" t="s">
+      <c r="A8" s="166"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="191" t="s">
+      <c r="F8" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="194"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="194" t="s">
+      <c r="G8" s="173"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="191"/>
-      <c r="K8" s="212"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="191"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="188"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="59">
         <v>290</v>
       </c>
-      <c r="K9" s="212"/>
+      <c r="K9" s="191"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
       <c r="I10" s="60" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="61">
         <v>293</v>
       </c>
-      <c r="K10" s="213"/>
+      <c r="K10" s="192"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
@@ -4054,664 +4029,664 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="291">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="225"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="66"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="66">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="67">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="292">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D12" s="70"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="206"/>
-      <c r="K12" s="71"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="66">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="67">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="293">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="71"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="A14" s="66">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="70">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="293">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="70"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="71"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="69"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
+      <c r="A15" s="66">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="67">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="292">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="71"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="69"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="67">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="292">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="66"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
+      <c r="A17" s="66">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="67">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="292">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="71"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="69"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="66">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="67">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="292">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="71"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="69"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="71">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="292">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="71"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
+      <c r="A20" s="66">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="67">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="292">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="70"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="71"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="69"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75">
+      <c r="A21" s="72">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="71">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="293">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D21" s="70"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="71"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="69"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
+      <c r="A22" s="66">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="67">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="292">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="70"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="71"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="69"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+      <c r="A23" s="66">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="67">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="293">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="206"/>
-      <c r="K23" s="71"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="69"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B24" s="73">
+      <c r="B24" s="70">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="293">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="71"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="69"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+      <c r="A25" s="66">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="67">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="292">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D25" s="70"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="71"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="69"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+      <c r="A26" s="66">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="67">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="292">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="71"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="69"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
+      <c r="A27" s="66">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="67">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="292">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="70"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="206"/>
-      <c r="K27" s="71"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="69"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
+      <c r="A28" s="66">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B28" s="68">
+      <c r="B28" s="67">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="292">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="70"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="71"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
+      <c r="A29" s="66">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B29" s="74">
+      <c r="B29" s="71">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="292">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D29" s="70"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="206"/>
-      <c r="K29" s="71"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67">
+      <c r="A30" s="66">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="67">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="292">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="201"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="206"/>
-      <c r="K30" s="71"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="69"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="75">
+      <c r="A31" s="72">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B31" s="74">
+      <c r="B31" s="71">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="293">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="201"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="206"/>
-      <c r="K31" s="71"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="69"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+      <c r="A32" s="66">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="67">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="69">
+      <c r="C32" s="292">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D32" s="70"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="202"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="206"/>
-      <c r="K32" s="71"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="69"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67">
+      <c r="A33" s="66">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B33" s="68">
+      <c r="B33" s="67">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="293">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D33" s="70"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="201"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="71"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="69"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
+      <c r="A34" s="66">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="70">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="293">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D34" s="70"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="206"/>
-      <c r="K34" s="71"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="69"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
+      <c r="A35" s="66">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B35" s="68">
+      <c r="B35" s="67">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="292">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D35" s="70"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="201"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="71"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="69"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
+      <c r="A36" s="66">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="67">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="292">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D36" s="70"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="206"/>
-      <c r="K36" s="71"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="185"/>
+      <c r="K36" s="69"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67">
+      <c r="A37" s="66">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="67">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="292">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D37" s="70"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="206"/>
-      <c r="K37" s="71"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="69"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
+      <c r="A38" s="66">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="67">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="292">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D38" s="70"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="201"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="206"/>
-      <c r="K38" s="71"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="69"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67">
+      <c r="A39" s="66">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B39" s="68">
+      <c r="B39" s="67">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="69">
+      <c r="C39" s="292">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D39" s="70"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="206"/>
-      <c r="K39" s="71"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="69"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="76">
+      <c r="A40" s="73">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B40" s="77">
+      <c r="B40" s="74">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="78">
+      <c r="C40" s="294">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D40" s="70"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="71"/>
+      <c r="G40" s="179"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="185"/>
+      <c r="K40" s="69"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="79" t="e">
+      <c r="B41" s="296"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="75" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4723,28 +4698,28 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="197" t="e">
+      <c r="G41" s="176" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="198"/>
-      <c r="I41" s="209" t="e">
+      <c r="H41" s="177"/>
+      <c r="I41" s="188" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="210"/>
+      <c r="J41" s="189"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="185" t="s">
+      <c r="A42" s="297" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="80">
+      <c r="B42" s="298"/>
+      <c r="C42" s="298"/>
+      <c r="D42" s="76">
         <f>MIN(D11:D40)</f>
         <v>0</v>
       </c>
@@ -4756,50 +4731,50 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="218">
+      <c r="G42" s="197">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="219"/>
-      <c r="I42" s="203">
+      <c r="H42" s="198"/>
+      <c r="I42" s="182">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="204"/>
+      <c r="J42" s="183"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="299" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="81">
+      <c r="B43" s="300"/>
+      <c r="C43" s="300"/>
+      <c r="D43" s="77">
         <f>MAX(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="82">
+      <c r="E43" s="78">
         <f t="shared" ref="E43:F43" si="2">MAX(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="82">
+      <c r="F43" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="216">
+      <c r="G43" s="195">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="217"/>
-      <c r="I43" s="214">
+      <c r="H43" s="196"/>
+      <c r="I43" s="193">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="215"/>
-      <c r="K43" s="83">
+      <c r="J43" s="194"/>
+      <c r="K43" s="79">
         <f>MAX(K11:K40)</f>
         <v>0</v>
       </c>
@@ -4808,8 +4783,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4826,8 +4801,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4836,11 +4811,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4853,11 +4828,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="170" t="s">
+      <c r="A47" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4881,34 +4856,34 @@
       <c r="K48" s="54"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="84"/>
+      <c r="I51" s="80"/>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="84"/>
+      <c r="I52" s="80"/>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="84"/>
+      <c r="I53" s="80"/>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="84"/>
+      <c r="I54" s="80"/>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="84"/>
+      <c r="I55" s="80"/>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="84"/>
+      <c r="I56" s="80"/>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="84"/>
+      <c r="I57" s="80"/>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" s="84"/>
+      <c r="I58" s="80"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" s="84"/>
+      <c r="I59" s="80"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I60" s="84"/>
+      <c r="I60" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -5055,46 +5030,46 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K42"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="85"/>
+    <col min="12" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5115,18 +5090,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="141">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="199">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5144,25 +5119,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="221">
+      <c r="J4" s="200">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="222"/>
+      <c r="K4" s="201"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="145">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5180,81 +5155,81 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="223">
+      <c r="J5" s="202">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="224"/>
+      <c r="K5" s="203"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="211"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="190"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="181" t="s">
+      <c r="A7" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="163"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="209" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="227" t="s">
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="187"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="212"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="191"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="233" t="s">
+      <c r="A8" s="166"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="301" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="169" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="169" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="190" t="s">
+      <c r="G8" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="228" t="s">
+      <c r="H8" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="187"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="212"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="191"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="212"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="191"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
@@ -5265,664 +5240,664 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="291">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="120"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="212"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="191"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
+      <c r="A11" s="66">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="67">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="292">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="123"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="212"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="191"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="66">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="67">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="293">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="123"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="212"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="191"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="66">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="70">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="293">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="120"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="212"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="191"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="A14" s="66">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="67">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="292">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="123"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="212"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="191"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
+      <c r="A15" s="66">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="67">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="292">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="123"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="212"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="191"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="67">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="292">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="123"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="212"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="191"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
+      <c r="A17" s="66">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="67">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="292">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="123"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="212"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="191"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="66">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="71">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="292">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="123"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="212"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="191"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="67">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="292">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="123"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="212"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="191"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75">
+      <c r="A20" s="72">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="71">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="293">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="123"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="212"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="191"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
+      <c r="A21" s="66">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="67">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="292">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="212"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="191"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
+      <c r="A22" s="66">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="67">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="293">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="212"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="191"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+      <c r="A23" s="66">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="70">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="293">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="123"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="212"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="191"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="67">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="292">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="123"/>
+      <c r="D24" s="119"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="212"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="191"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+      <c r="A25" s="66">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="67">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="292">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="123"/>
+      <c r="D25" s="119"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="212"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="191"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+      <c r="A26" s="66">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="67">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="292">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="123"/>
+      <c r="D26" s="119"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="212"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="191"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
+      <c r="A27" s="66">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="67">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="292">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="123"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="212"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="191"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
+      <c r="A28" s="66">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="71">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="292">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="123"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="212"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="191"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
+      <c r="A29" s="66">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="67">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="292">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="123"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="212"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="191"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75">
+      <c r="A30" s="72">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B30" s="71">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="293">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="123"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="212"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="191"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
+      <c r="A31" s="66">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="67">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="292">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="123"/>
+      <c r="D31" s="119"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="212"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="191"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+      <c r="A32" s="66">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="67">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="293">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="123"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="212"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="191"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67">
+      <c r="A33" s="66">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="73">
+      <c r="B33" s="70">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="293">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="123"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="212"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="191"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
+      <c r="A34" s="66">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="68">
+      <c r="B34" s="67">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="69">
+      <c r="C34" s="292">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="123"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="212"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="191"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
+      <c r="A35" s="66">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="68">
+      <c r="B35" s="67">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="292">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="123"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="212"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="191"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
+      <c r="A36" s="66">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="67">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="292">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="123"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="212"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="191"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67">
+      <c r="A37" s="66">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="67">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="292">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="123"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="212"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="191"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
+      <c r="A38" s="66">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="67">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="292">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="123"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="188"/>
-      <c r="K38" s="212"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="191"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="76">
+      <c r="A39" s="73">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B39" s="77">
+      <c r="B39" s="74">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="78">
+      <c r="C39" s="294">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="123"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="212"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="191"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="238" t="s">
+      <c r="A40" s="302" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="240"/>
-      <c r="D40" s="126" t="e">
+      <c r="B40" s="303"/>
+      <c r="C40" s="304"/>
+      <c r="D40" s="122" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5938,21 +5913,21 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="127" t="e">
+      <c r="H40" s="123" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="187"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="212"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="191"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="164" t="s">
+      <c r="A41" s="284" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="165"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="128">
+      <c r="B41" s="285"/>
+      <c r="C41" s="286"/>
+      <c r="D41" s="124">
         <f>MIN(D10:D39)</f>
         <v>0</v>
       </c>
@@ -5968,50 +5943,50 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="129">
+      <c r="H41" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="187"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="212"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="191"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="230" t="s">
+      <c r="A42" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="231"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="130">
+      <c r="B42" s="306"/>
+      <c r="C42" s="307"/>
+      <c r="D42" s="126">
         <f>MAX(D10:D39)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="131">
+      <c r="E42" s="127">
         <f t="shared" ref="E42:H42" si="2">MAX(E10:E39)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="131">
+      <c r="F42" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="131">
+      <c r="G42" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="132">
+      <c r="H42" s="128">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="189"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="213"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="175"/>
+      <c r="K42" s="192"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6028,8 +6003,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="159"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6038,11 +6013,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6055,11 +6030,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6152,214 +6127,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="86" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="86" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="86" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="86" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="118"/>
+    <col min="1" max="2" width="21.42578125" style="82" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="82" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="82" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="82" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="241" t="s">
+    <row r="1" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="243"/>
-    </row>
-    <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="212"/>
+    </row>
+    <row r="2" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+    <row r="3" spans="1:7" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="261" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="294"/>
-    </row>
-    <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="187" t="s">
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
+    </row>
+    <row r="4" spans="1:7" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="212"/>
-    </row>
-    <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="244" t="s">
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="191"/>
+    </row>
+    <row r="5" spans="1:7" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="246"/>
-    </row>
-    <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="215"/>
+    </row>
+    <row r="6" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="247">
+      <c r="D6" s="216">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="249" t="s">
+      <c r="E6" s="217"/>
+      <c r="F6" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="250">
+      <c r="G6" s="219">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+    <row r="7" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="247">
+      <c r="D7" s="216">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="248"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="251"/>
-    </row>
-    <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="E7" s="217"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="220"/>
+    </row>
+    <row r="8" spans="1:7" s="82" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="89">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="249">
+      <c r="D8" s="218">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="249"/>
-      <c r="F8" s="261" t="s">
+      <c r="E8" s="218"/>
+      <c r="F8" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="250">
+      <c r="G8" s="219">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="91">
         <f>Page1!G44</f>
         <v>461347000</v>
       </c>
-      <c r="C9" s="261" t="s">
+      <c r="C9" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="266" t="s">
+      <c r="D9" s="235" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="267"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="264"/>
-    </row>
-    <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
+      <c r="E9" s="236"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="233"/>
+    </row>
+    <row r="10" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="94">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="263"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="265"/>
-    </row>
-    <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="252" t="s">
+      <c r="C10" s="232"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="232"/>
+      <c r="G10" s="234"/>
+    </row>
+    <row r="11" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="254" t="s">
+      <c r="B11" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="256" t="s">
+      <c r="C11" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="257"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="254" t="s">
+      <c r="D11" s="226"/>
+      <c r="E11" s="227"/>
+      <c r="F11" s="223" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="259" t="s">
+      <c r="G11" s="228" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="253"/>
-      <c r="B12" s="255"/>
-      <c r="C12" s="99" t="s">
+    <row r="12" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="222"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="255"/>
-      <c r="G12" s="260"/>
-    </row>
-    <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
+      <c r="F12" s="224"/>
+      <c r="G12" s="229"/>
+    </row>
+    <row r="13" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="98">
         <v>17</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="98">
         <v>18</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="98">
         <v>20</v>
       </c>
-      <c r="F13" s="103" t="e">
+      <c r="F13" s="99" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
@@ -6367,169 +6342,169 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+    <row r="14" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="102">
         <v>18</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="102">
         <v>23</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="102">
         <v>28</v>
       </c>
-      <c r="F14" s="107" t="e">
+      <c r="F14" s="103" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="104" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+    <row r="15" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="102">
         <v>300</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="102" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="39" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="270" t="s">
+      <c r="G15" s="239" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+    <row r="16" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="102">
         <v>300</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="102" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="39" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="228"/>
-    </row>
-    <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="G16" s="207"/>
+    </row>
+    <row r="17" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C17" s="102">
         <v>900</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="106">
+      <c r="E17" s="102">
         <v>1200</v>
       </c>
       <c r="F17" s="39" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="228"/>
-    </row>
-    <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
+      <c r="G17" s="207"/>
+    </row>
+    <row r="18" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="102">
         <v>700</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="102">
         <v>1000</v>
       </c>
       <c r="F18" s="39" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="228"/>
-    </row>
-    <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="G18" s="207"/>
+    </row>
+    <row r="19" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="102">
         <v>350</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="102" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="39" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="228"/>
-    </row>
-    <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104" t="s">
+      <c r="G19" s="207"/>
+    </row>
+    <row r="20" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="102">
         <v>400</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="102" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="39" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="228"/>
-    </row>
-    <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104" t="s">
+      <c r="G20" s="207"/>
+    </row>
+    <row r="21" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="101" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="38">
@@ -6545,13 +6520,13 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="228"/>
-    </row>
-    <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="G21" s="207"/>
+    </row>
+    <row r="22" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="101" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="38">
@@ -6567,13 +6542,13 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="138"/>
-    </row>
-    <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
+      <c r="G22" s="134"/>
+    </row>
+    <row r="23" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="101" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="39">
@@ -6589,18 +6564,18 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="104" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
+    <row r="24" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="102" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="39">
@@ -6615,38 +6590,38 @@
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="104" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
+    <row r="25" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="101" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="39">
         <v>6000</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="102" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="39">
         <v>6000</v>
       </c>
-      <c r="G25" s="108" t="s">
+      <c r="G25" s="104" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110" t="s">
+    <row r="26" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="107" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="57">
@@ -6655,168 +6630,168 @@
       <c r="D26" s="57">
         <v>430</v>
       </c>
-      <c r="E26" s="112">
+      <c r="E26" s="108">
         <v>450</v>
       </c>
-      <c r="F26" s="112" t="e">
+      <c r="F26" s="108" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="109" t="s">
+      <c r="G26" s="105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="271" t="s">
+    <row r="27" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="240" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="272"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
-      <c r="E27" s="272"/>
-      <c r="F27" s="272"/>
-      <c r="G27" s="273"/>
-    </row>
-    <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="274" t="s">
+      <c r="B27" s="241"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="242"/>
+    </row>
+    <row r="28" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="243" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="275"/>
-      <c r="C28" s="276" t="s">
+      <c r="B28" s="244"/>
+      <c r="C28" s="245" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="277"/>
-      <c r="E28" s="278"/>
-      <c r="F28" s="113" t="s">
+      <c r="D28" s="246"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="109" t="s">
         <v>95</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="279" t="s">
+    <row r="29" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="248"/>
-      <c r="C29" s="280" t="s">
+      <c r="B29" s="217"/>
+      <c r="C29" s="249" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="281"/>
-      <c r="E29" s="282"/>
-      <c r="F29" s="80" t="s">
+      <c r="D29" s="250"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="104" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="279" t="s">
+    <row r="30" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="248"/>
-      <c r="C30" s="280" t="s">
+      <c r="B30" s="217"/>
+      <c r="C30" s="249" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="281"/>
-      <c r="E30" s="282"/>
-      <c r="F30" s="80" t="s">
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="76" t="s">
         <v>95</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="279" t="s">
+    <row r="31" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="248" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="248"/>
-      <c r="C31" s="280" t="s">
+      <c r="B31" s="217"/>
+      <c r="C31" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="281"/>
-      <c r="E31" s="282"/>
-      <c r="F31" s="80" t="s">
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="279" t="s">
+    <row r="32" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="248" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="248"/>
-      <c r="C32" s="280" t="s">
+      <c r="B32" s="217"/>
+      <c r="C32" s="249" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="281"/>
-      <c r="E32" s="282"/>
-      <c r="F32" s="80" t="s">
+      <c r="D32" s="250"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="G32" s="104" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="279" t="s">
+    <row r="33" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="248"/>
-      <c r="C33" s="280" t="s">
+      <c r="B33" s="217"/>
+      <c r="C33" s="249" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="281"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="80" t="s">
+      <c r="D33" s="250"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="104" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="148" t="s">
+    <row r="34" spans="1:7" s="82" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="283" t="s">
+      <c r="B34" s="145"/>
+      <c r="C34" s="252" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="284"/>
-      <c r="E34" s="285"/>
-      <c r="F34" s="114" t="s">
+      <c r="D34" s="253"/>
+      <c r="E34" s="254"/>
+      <c r="F34" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="129" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="271" t="s">
+    <row r="35" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="240" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="273"/>
-    </row>
-    <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="144" t="s">
+      <c r="B35" s="241"/>
+      <c r="C35" s="241"/>
+      <c r="D35" s="241"/>
+      <c r="E35" s="241"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="242"/>
+    </row>
+    <row r="36" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="289" t="s">
+      <c r="B36" s="141"/>
+      <c r="C36" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="290"/>
-      <c r="E36" s="145"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="141"/>
       <c r="F36" s="10" t="s">
         <v>95</v>
       </c>
@@ -6824,126 +6799,126 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="274" t="s">
+    <row r="37" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="275"/>
-      <c r="C37" s="247" t="s">
+      <c r="B37" s="244"/>
+      <c r="C37" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="286"/>
-      <c r="E37" s="248"/>
-      <c r="F37" s="106" t="s">
+      <c r="D37" s="255"/>
+      <c r="E37" s="217"/>
+      <c r="F37" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="108" t="s">
+      <c r="G37" s="104" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="279" t="s">
+    <row r="38" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="248"/>
-      <c r="C38" s="247" t="s">
+      <c r="B38" s="217"/>
+      <c r="C38" s="216" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="286"/>
-      <c r="E38" s="248"/>
-      <c r="F38" s="106" t="s">
+      <c r="D38" s="255"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="108" t="s">
+      <c r="G38" s="104" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148" t="s">
+    <row r="39" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="287" t="s">
+      <c r="B39" s="145"/>
+      <c r="C39" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="288"/>
-      <c r="E39" s="149"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="145"/>
       <c r="F39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="109" t="s">
+      <c r="G39" s="105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="295" t="s">
+    <row r="40" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="264" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="296"/>
-      <c r="C40" s="297" t="s">
+      <c r="B40" s="265"/>
+      <c r="C40" s="266" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="298"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="297" t="s">
+      <c r="D40" s="267"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="266" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="299"/>
-    </row>
-    <row r="41" spans="1:7" s="86" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="300"/>
-      <c r="B41" s="301"/>
-      <c r="C41" s="306"/>
-      <c r="D41" s="307"/>
-      <c r="E41" s="308"/>
-      <c r="F41" s="306"/>
-      <c r="G41" s="308"/>
-    </row>
-    <row r="42" spans="1:7" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="302"/>
-      <c r="B42" s="303"/>
-      <c r="C42" s="309" t="s">
+      <c r="G40" s="268"/>
+    </row>
+    <row r="41" spans="1:7" s="82" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="269"/>
+      <c r="B41" s="270"/>
+      <c r="C41" s="273"/>
+      <c r="D41" s="274"/>
+      <c r="E41" s="275"/>
+      <c r="F41" s="273"/>
+      <c r="G41" s="275"/>
+    </row>
+    <row r="42" spans="1:7" s="82" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="271"/>
+      <c r="B42" s="272"/>
+      <c r="C42" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="310"/>
-      <c r="E42" s="311"/>
-      <c r="F42" s="309" t="s">
+      <c r="D42" s="277"/>
+      <c r="E42" s="278"/>
+      <c r="F42" s="276" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="311"/>
-    </row>
-    <row r="43" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="304"/>
-      <c r="F43" s="304"/>
-      <c r="G43" s="304"/>
-    </row>
-    <row r="44" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="278"/>
+    </row>
+    <row r="43" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="111"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="279"/>
+      <c r="F43" s="279"/>
+      <c r="G43" s="279"/>
+    </row>
+    <row r="44" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="305"/>
-      <c r="F44" s="305"/>
-      <c r="G44" s="305"/>
-    </row>
-    <row r="45" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="291" t="s">
+      <c r="B44" s="112"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="280"/>
+      <c r="F44" s="280"/>
+      <c r="G44" s="280"/>
+    </row>
+    <row r="45" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="260" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="291"/>
-    </row>
-    <row r="47" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="291" t="s">
+      <c r="B46" s="260"/>
+    </row>
+    <row r="47" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="260" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="291"/>
+      <c r="B47" s="260"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -7003,8 +6978,8 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D7:E7"/>
   </mergeCells>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/templates/UC-18gsm-290NP-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290NP-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0908E6E-45C7-44BF-A200-7C1B1B25784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC0B0D-F370-4EE8-BB93-E74D8A6A4159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1730,9 +1730,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1742,9 +1739,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1760,12 +1754,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1827,6 +1815,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1834,9 +1882,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1893,9 +1938,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1908,20 +1950,130 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1929,156 +2081,262 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2099,280 +2357,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2948,35 +2969,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -2997,12 +3018,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3014,19 +3035,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="136"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="151"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3038,64 +3059,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="137"/>
-      <c r="K5" s="138"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="153"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="154"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133" t="s">
+      <c r="A7" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="148" t="s">
+      <c r="G7" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="148" t="s">
+      <c r="H7" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="149"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150" t="s">
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3497,11 +3518,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="281" t="s">
+      <c r="A39" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="282"/>
-      <c r="C39" s="283"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="145"/>
       <c r="D39" s="35" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3536,11 +3557,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="284" t="s">
+      <c r="A40" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="285"/>
-      <c r="C40" s="286"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="142"/>
       <c r="D40" s="38">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3575,11 +3596,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="287" t="s">
+      <c r="A41" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="288"/>
-      <c r="C41" s="289"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="139"/>
       <c r="D41" s="41">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3620,8 +3641,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3638,8 +3659,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="159"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="132"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3648,11 +3669,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3664,11 +3685,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3679,9 +3700,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="157"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
+      <c r="A46" s="130"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -3710,16 +3731,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3736,6 +3747,16 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="notBetween">
@@ -3807,35 +3828,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3856,18 +3877,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="141">
+      <c r="B4" s="156">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="181">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="165"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3885,25 +3906,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="169">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
+      <c r="K4" s="170"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="160">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="161">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="162"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3921,104 +3942,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="202">
+      <c r="J5" s="171">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="203"/>
+      <c r="K5" s="172"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="208" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="187"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="209" t="s">
+      <c r="A7" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="200"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="172" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="172" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="194" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="190" t="s">
+      <c r="J7" s="195"/>
+      <c r="K7" s="189" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
-      <c r="B8" s="290"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="290" t="s">
+      <c r="A8" s="218"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="219" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="169" t="s">
+      <c r="E8" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="170" t="s">
+      <c r="F8" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="173"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="173" t="s">
+      <c r="G8" s="177"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="170"/>
-      <c r="K8" s="191"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="190"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="166"/>
-      <c r="B9" s="290"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="167"/>
+      <c r="A9" s="218"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="201"/>
       <c r="I9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="59">
         <v>290</v>
       </c>
-      <c r="K9" s="191"/>
+      <c r="K9" s="190"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="166"/>
-      <c r="B10" s="290"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
+      <c r="A10" s="218"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="203"/>
       <c r="I10" s="60" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="61">
         <v>293</v>
       </c>
-      <c r="K10" s="192"/>
+      <c r="K10" s="191"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
@@ -4029,17 +4050,17 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="291">
+      <c r="C11" s="126">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="205"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="176"/>
       <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4051,17 +4072,17 @@
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="292">
+      <c r="C12" s="127">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="68"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="185"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
       <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,17 +4094,17 @@
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="293">
+      <c r="C13" s="128">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="185"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
       <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4095,17 +4116,17 @@
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="293">
+      <c r="C14" s="128">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="185"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="174"/>
       <c r="K14" s="69"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,17 +4138,17 @@
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="292">
+      <c r="C15" s="127">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="185"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="174"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4139,17 +4160,17 @@
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="292">
+      <c r="C16" s="127">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="185"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="174"/>
       <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4161,17 +4182,17 @@
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="292">
+      <c r="C17" s="127">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="185"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="174"/>
       <c r="K17" s="69"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4183,17 +4204,17 @@
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="292">
+      <c r="C18" s="127">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="185"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="174"/>
       <c r="K18" s="69"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4205,17 +4226,17 @@
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="292">
+      <c r="C19" s="127">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="185"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="174"/>
       <c r="K19" s="69"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4227,17 +4248,17 @@
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="292">
+      <c r="C20" s="127">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="185"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
       <c r="K20" s="69"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4249,17 +4270,17 @@
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="293">
+      <c r="C21" s="128">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="185"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
       <c r="K21" s="69"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,17 +4292,17 @@
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="292">
+      <c r="C22" s="127">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="68"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="185"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
       <c r="K22" s="69"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4293,17 +4314,17 @@
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="293">
+      <c r="C23" s="128">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="185"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="174"/>
       <c r="K23" s="69"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4315,17 +4336,17 @@
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="293">
+      <c r="C24" s="128">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="185"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="174"/>
       <c r="K24" s="69"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4337,17 +4358,17 @@
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="292">
+      <c r="C25" s="127">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="185"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="174"/>
       <c r="K25" s="69"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4359,17 +4380,17 @@
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="292">
+      <c r="C26" s="127">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="185"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="174"/>
       <c r="K26" s="69"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4381,17 +4402,17 @@
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="292">
+      <c r="C27" s="127">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="185"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="174"/>
       <c r="K27" s="69"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4403,17 +4424,17 @@
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="292">
+      <c r="C28" s="127">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="185"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="174"/>
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4425,17 +4446,17 @@
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="292">
+      <c r="C29" s="127">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="185"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="174"/>
       <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4447,17 +4468,17 @@
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="292">
+      <c r="C30" s="127">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="185"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="174"/>
       <c r="K30" s="69"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4469,17 +4490,17 @@
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="293">
+      <c r="C31" s="128">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="174"/>
       <c r="K31" s="69"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4491,17 +4512,17 @@
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="292">
+      <c r="C32" s="127">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="185"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="174"/>
       <c r="K32" s="69"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4513,17 +4534,17 @@
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="293">
+      <c r="C33" s="128">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="185"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
       <c r="K33" s="69"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4535,17 +4556,17 @@
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="293">
+      <c r="C34" s="128">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="181"/>
-      <c r="I34" s="184"/>
-      <c r="J34" s="185"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="174"/>
       <c r="K34" s="69"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4557,17 +4578,17 @@
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="292">
+      <c r="C35" s="127">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="185"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="174"/>
       <c r="K35" s="69"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4579,17 +4600,17 @@
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="292">
+      <c r="C36" s="127">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="68"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="185"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="174"/>
       <c r="K36" s="69"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4601,17 +4622,17 @@
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="292">
+      <c r="C37" s="127">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="68"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="185"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="174"/>
       <c r="K37" s="69"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4623,17 +4644,17 @@
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="292">
+      <c r="C38" s="127">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="68"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="181"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="185"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="174"/>
       <c r="K38" s="69"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,17 +4666,17 @@
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="292">
+      <c r="C39" s="127">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="68"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="185"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="174"/>
       <c r="K39" s="69"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4667,25 +4688,25 @@
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="294">
+      <c r="C40" s="129">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="68"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="185"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="174"/>
       <c r="K40" s="69"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="295" t="s">
+      <c r="A41" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="296"/>
-      <c r="C41" s="296"/>
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
       <c r="D41" s="75" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4698,27 +4719,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="176" t="e">
+      <c r="G41" s="204" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="177"/>
-      <c r="I41" s="188" t="e">
+      <c r="H41" s="205"/>
+      <c r="I41" s="198" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="189"/>
+      <c r="J41" s="199"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="297" t="s">
+      <c r="A42" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="298"/>
-      <c r="C42" s="298"/>
+      <c r="B42" s="216"/>
+      <c r="C42" s="216"/>
       <c r="D42" s="76">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4731,27 +4752,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="197">
+      <c r="G42" s="187">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="198"/>
-      <c r="I42" s="182">
+      <c r="H42" s="188"/>
+      <c r="I42" s="192">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="183"/>
+      <c r="J42" s="193"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="299" t="s">
+      <c r="A43" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="300"/>
-      <c r="C43" s="300"/>
+      <c r="B43" s="211"/>
+      <c r="C43" s="211"/>
       <c r="D43" s="77">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4764,16 +4785,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="195">
+      <c r="G43" s="185">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="196"/>
-      <c r="I43" s="193">
+      <c r="H43" s="186"/>
+      <c r="I43" s="183">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="194"/>
+      <c r="J43" s="184"/>
       <c r="K43" s="79">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4783,8 +4804,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="158"/>
-      <c r="C44" s="158"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="131"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4801,8 +4822,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4811,11 +4832,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="157" t="s">
+      <c r="A46" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4828,11 +4849,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="157" t="s">
+      <c r="A47" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4887,6 +4908,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
@@ -4903,84 +5002,6 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5041,35 +5062,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5090,18 +5111,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="141">
+      <c r="B4" s="156">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="181">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="165"/>
+      <c r="D4" s="182"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5119,25 +5140,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="169">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
+      <c r="K4" s="170"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="160">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="161">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="162"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5155,81 +5176,81 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="202">
+      <c r="J5" s="171">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="203"/>
+      <c r="K5" s="172"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="190"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="189"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="209" t="s">
+      <c r="A7" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="200"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="206" t="s">
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="226" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="191"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="190"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
-      <c r="B8" s="290"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="301" t="s">
+      <c r="A8" s="218"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="232" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="169" t="s">
+      <c r="E8" s="220" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="169" t="s">
+      <c r="F8" s="220" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="169" t="s">
+      <c r="G8" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="207" t="s">
+      <c r="H8" s="227" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="191"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="190"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="168"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="191"/>
+      <c r="A9" s="222"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="190"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
@@ -5240,18 +5261,18 @@
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="291">
+      <c r="C10" s="126">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="191"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="190"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66">
@@ -5262,18 +5283,18 @@
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="292">
+      <c r="C11" s="127">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="191"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="190"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66">
@@ -5284,18 +5305,18 @@
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="293">
+      <c r="C12" s="128">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="119"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="191"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="190"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66">
@@ -5306,18 +5327,18 @@
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="293">
+      <c r="C13" s="128">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="116"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="191"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="190"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66">
@@ -5328,18 +5349,18 @@
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="292">
+      <c r="C14" s="127">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="191"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="190"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66">
@@ -5350,18 +5371,18 @@
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="292">
+      <c r="C15" s="127">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="119"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="191"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="190"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66">
@@ -5372,18 +5393,18 @@
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="292">
+      <c r="C16" s="127">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="119"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="191"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="190"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66">
@@ -5394,18 +5415,18 @@
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="292">
+      <c r="C17" s="127">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="119"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="191"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="190"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66">
@@ -5416,18 +5437,18 @@
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="292">
+      <c r="C18" s="127">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="119"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="191"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="190"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66">
@@ -5438,18 +5459,18 @@
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="292">
+      <c r="C19" s="127">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="119"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="191"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="190"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="72">
@@ -5460,18 +5481,18 @@
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="293">
+      <c r="C20" s="128">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="191"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="190"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66">
@@ -5482,18 +5503,18 @@
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="292">
+      <c r="C21" s="127">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="119"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="191"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="190"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66">
@@ -5504,18 +5525,18 @@
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="293">
+      <c r="C22" s="128">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="119"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="191"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="190"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
@@ -5526,18 +5547,18 @@
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="293">
+      <c r="C23" s="128">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="119"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="191"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="190"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66">
@@ -5548,18 +5569,18 @@
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="292">
+      <c r="C24" s="127">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="119"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="191"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="190"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
@@ -5570,18 +5591,18 @@
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="292">
+      <c r="C25" s="127">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="119"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="191"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="190"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66">
@@ -5592,18 +5613,18 @@
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="292">
+      <c r="C26" s="127">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="119"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="191"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="190"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66">
@@ -5614,18 +5635,18 @@
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="292">
+      <c r="C27" s="127">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="119"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="191"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="190"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66">
@@ -5636,18 +5657,18 @@
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="292">
+      <c r="C28" s="127">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="119"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="191"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="190"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66">
@@ -5658,18 +5679,18 @@
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="292">
+      <c r="C29" s="127">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="119"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="191"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="190"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="72">
@@ -5680,18 +5701,18 @@
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="293">
+      <c r="C30" s="128">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="119"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="191"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="190"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66">
@@ -5702,18 +5723,18 @@
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="292">
+      <c r="C31" s="127">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="119"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="191"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="201"/>
+      <c r="K31" s="190"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66">
@@ -5724,18 +5745,18 @@
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="293">
+      <c r="C32" s="128">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="119"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="191"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="190"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66">
@@ -5746,18 +5767,18 @@
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="293">
+      <c r="C33" s="128">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="119"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="191"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="201"/>
+      <c r="K33" s="190"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66">
@@ -5768,18 +5789,18 @@
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="292">
+      <c r="C34" s="127">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="119"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="191"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="190"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66">
@@ -5790,18 +5811,18 @@
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="292">
+      <c r="C35" s="127">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="119"/>
+      <c r="D35" s="115"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="191"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="201"/>
+      <c r="K35" s="190"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66">
@@ -5812,18 +5833,18 @@
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="292">
+      <c r="C36" s="127">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="119"/>
+      <c r="D36" s="115"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="191"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="201"/>
+      <c r="K36" s="190"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66">
@@ -5834,18 +5855,18 @@
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="292">
+      <c r="C37" s="127">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="119"/>
+      <c r="D37" s="115"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="191"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="201"/>
+      <c r="K37" s="190"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66">
@@ -5856,18 +5877,18 @@
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="292">
+      <c r="C38" s="127">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="119"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="191"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="201"/>
+      <c r="K38" s="190"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="73">
@@ -5878,26 +5899,26 @@
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="294">
+      <c r="C39" s="129">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="119"/>
+      <c r="D39" s="115"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="191"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="190"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="302" t="s">
+      <c r="A40" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="303"/>
-      <c r="C40" s="304"/>
-      <c r="D40" s="122" t="e">
+      <c r="B40" s="224"/>
+      <c r="C40" s="225"/>
+      <c r="D40" s="118" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5913,21 +5934,21 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="123" t="e">
+      <c r="H40" s="119" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="166"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="191"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="190"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="284" t="s">
+      <c r="A41" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="285"/>
-      <c r="C41" s="286"/>
-      <c r="D41" s="124">
+      <c r="B41" s="141"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="120">
         <f>MIN(D10:D39)</f>
         <v>0</v>
       </c>
@@ -5943,50 +5964,50 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="125">
+      <c r="H41" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="166"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="191"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="201"/>
+      <c r="K41" s="190"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="305" t="s">
+      <c r="A42" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="306"/>
-      <c r="C42" s="307"/>
-      <c r="D42" s="126">
+      <c r="B42" s="230"/>
+      <c r="C42" s="231"/>
+      <c r="D42" s="122">
         <f>MAX(D10:D39)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="127">
+      <c r="E42" s="123">
         <f t="shared" ref="E42:H42" si="2">MAX(E10:E39)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="127">
+      <c r="F42" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="127">
+      <c r="G42" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="128">
+      <c r="H42" s="124">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="168"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="192"/>
+      <c r="I42" s="222"/>
+      <c r="J42" s="203"/>
+      <c r="K42" s="191"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6003,8 +6024,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="159"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6013,11 +6034,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6030,11 +6051,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="157" t="s">
+      <c r="A46" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6059,6 +6080,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="J4:K4"/>
@@ -6075,15 +6105,6 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6119,77 +6140,83 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.42578125" style="82" customWidth="1"/>
     <col min="3" max="5" width="12.85546875" style="82" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="82" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="82" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="114"/>
+    <col min="6" max="6" width="12.140625" style="82" customWidth="1"/>
+    <col min="7" max="7" width="5" style="82" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="82" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="296" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="212"/>
-    </row>
-    <row r="2" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="298"/>
+    </row>
+    <row r="2" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
       <c r="E2" s="84"/>
       <c r="F2" s="84"/>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="85" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="261" t="s">
+    <row r="3" spans="1:8" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="263"/>
-    </row>
-    <row r="4" spans="1:7" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+    </row>
+    <row r="4" spans="1:8" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="191"/>
-    </row>
-    <row r="5" spans="1:7" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="213" t="s">
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="190"/>
+    </row>
+    <row r="5" spans="1:8" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="299" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="215"/>
-    </row>
-    <row r="6" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="301"/>
+    </row>
+    <row r="6" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>48</v>
       </c>
@@ -6199,20 +6226,21 @@
       <c r="C6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="216">
+      <c r="D6" s="256">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="217"/>
-      <c r="F6" s="218" t="s">
+      <c r="E6" s="258"/>
+      <c r="F6" s="283" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="219">
+      <c r="G6" s="284"/>
+      <c r="H6" s="280">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
         <v>51</v>
       </c>
@@ -6220,15 +6248,16 @@
       <c r="C7" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="216">
+      <c r="D7" s="256">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="217"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="220"/>
-    </row>
-    <row r="8" spans="1:7" s="82" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="258"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="302"/>
+    </row>
+    <row r="8" spans="1:8" s="82" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
         <v>53</v>
       </c>
@@ -6239,20 +6268,21 @@
       <c r="C8" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="218">
+      <c r="D8" s="277">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="230" t="s">
+      <c r="E8" s="277"/>
+      <c r="F8" s="283" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="219">
+      <c r="G8" s="284"/>
+      <c r="H8" s="280">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
         <v>55</v>
       </c>
@@ -6260,17 +6290,18 @@
         <f>Page1!G44</f>
         <v>461347000</v>
       </c>
-      <c r="C9" s="230" t="s">
+      <c r="C9" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="235" t="s">
+      <c r="D9" s="283" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="236"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="233"/>
-    </row>
-    <row r="10" spans="1:7" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="284"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="281"/>
+    </row>
+    <row r="10" spans="1:8" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="93" t="s">
         <v>58</v>
       </c>
@@ -6278,34 +6309,36 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="232"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="234"/>
-    </row>
-    <row r="11" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221" t="s">
+      <c r="C10" s="279"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="286"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="286"/>
+      <c r="H10" s="282"/>
+    </row>
+    <row r="11" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="287" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="223" t="s">
+      <c r="B11" s="289" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="225" t="s">
+      <c r="C11" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="226"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="223" t="s">
+      <c r="D11" s="292"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="228" t="s">
+      <c r="G11" s="308"/>
+      <c r="H11" s="294" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="222"/>
-      <c r="B12" s="224"/>
+    <row r="12" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="288"/>
+      <c r="B12" s="290"/>
       <c r="C12" s="95" t="s">
         <v>63</v>
       </c>
@@ -6315,10 +6348,11 @@
       <c r="E12" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="224"/>
-      <c r="G12" s="229"/>
-    </row>
-    <row r="13" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="309"/>
+      <c r="G12" s="310"/>
+      <c r="H12" s="295"/>
+    </row>
+    <row r="13" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>66</v>
       </c>
@@ -6334,177 +6368,185 @@
       <c r="E13" s="98">
         <v>20</v>
       </c>
-      <c r="F13" s="99" t="e">
+      <c r="F13" s="311" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="312"/>
+      <c r="H13" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+    <row r="14" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="101">
         <v>18</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="101">
         <v>23</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="101">
         <v>28</v>
       </c>
-      <c r="F14" s="103" t="e">
+      <c r="F14" s="192" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="104" t="s">
+      <c r="G14" s="193"/>
+      <c r="H14" s="102" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
+    <row r="15" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C15" s="101">
         <v>300</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="39" t="e">
+      <c r="F15" s="192" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="239" t="s">
+      <c r="G15" s="193"/>
+      <c r="H15" s="273" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
+    <row r="16" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="102">
+      <c r="C16" s="101">
         <v>300</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="39" t="e">
+      <c r="F16" s="192" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="207"/>
-    </row>
-    <row r="17" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="G16" s="193"/>
+      <c r="H16" s="227"/>
+    </row>
+    <row r="17" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="102">
+      <c r="C17" s="101">
         <v>900</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="101">
         <v>1200</v>
       </c>
-      <c r="F17" s="39" t="e">
+      <c r="F17" s="192" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="207"/>
-    </row>
-    <row r="18" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="100" t="s">
+      <c r="G17" s="193"/>
+      <c r="H17" s="227"/>
+    </row>
+    <row r="18" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="102">
+      <c r="C18" s="101">
         <v>700</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="101">
         <v>1000</v>
       </c>
-      <c r="F18" s="39" t="e">
+      <c r="F18" s="192" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="207"/>
-    </row>
-    <row r="19" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="G18" s="193"/>
+      <c r="H18" s="227"/>
+    </row>
+    <row r="19" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="102">
+      <c r="C19" s="101">
         <v>350</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="39" t="e">
+      <c r="F19" s="192" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="207"/>
-    </row>
-    <row r="20" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
+      <c r="G19" s="193"/>
+      <c r="H19" s="227"/>
+    </row>
+    <row r="20" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C20" s="101">
         <v>400</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="39" t="e">
+      <c r="F20" s="192" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="207"/>
-    </row>
-    <row r="21" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
+      <c r="G20" s="193"/>
+      <c r="H20" s="227"/>
+    </row>
+    <row r="21" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="100" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="38">
@@ -6516,17 +6558,18 @@
       <c r="E21" s="38">
         <v>0.6</v>
       </c>
-      <c r="F21" s="38" t="e">
+      <c r="F21" s="192" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="207"/>
-    </row>
-    <row r="22" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="G21" s="193"/>
+      <c r="H21" s="227"/>
+    </row>
+    <row r="22" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="100" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="38">
@@ -6538,17 +6581,18 @@
       <c r="E22" s="38">
         <v>1.4</v>
       </c>
-      <c r="F22" s="38" t="e">
+      <c r="F22" s="192" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="134"/>
-    </row>
-    <row r="23" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
+      <c r="G22" s="193"/>
+      <c r="H22" s="149"/>
+    </row>
+    <row r="23" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="100" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="39">
@@ -6560,22 +6604,23 @@
       <c r="E23" s="39">
         <v>400</v>
       </c>
-      <c r="F23" s="39" t="e">
+      <c r="F23" s="192" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="104" t="s">
+      <c r="G23" s="193"/>
+      <c r="H23" s="102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
+    <row r="24" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="101" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="39">
@@ -6586,42 +6631,44 @@
         <f>Page2!J10</f>
         <v>293</v>
       </c>
-      <c r="F24" s="39" t="e">
+      <c r="F24" s="192" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="104" t="s">
+      <c r="G24" s="193"/>
+      <c r="H24" s="102" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100" t="s">
+    <row r="25" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="100" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="39">
         <v>6000</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="192">
         <v>6000</v>
       </c>
-      <c r="G25" s="104" t="s">
+      <c r="G25" s="193"/>
+      <c r="H25" s="102" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="106" t="s">
+    <row r="26" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="105" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="57">
@@ -6630,353 +6677,409 @@
       <c r="D26" s="57">
         <v>430</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="106">
         <v>450</v>
       </c>
-      <c r="F26" s="108" t="e">
+      <c r="F26" s="192" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="105" t="s">
+      <c r="G26" s="193"/>
+      <c r="H26" s="103" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="240" t="s">
+    <row r="27" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="270" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="242"/>
-    </row>
-    <row r="28" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="243" t="s">
+      <c r="B27" s="271"/>
+      <c r="C27" s="271"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="272"/>
+    </row>
+    <row r="28" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="254" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="244"/>
-      <c r="C28" s="245" t="s">
+      <c r="B28" s="255"/>
+      <c r="C28" s="274" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="246"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="109" t="s">
+      <c r="D28" s="275"/>
+      <c r="E28" s="276"/>
+      <c r="F28" s="313" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="314"/>
+      <c r="H28" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="248" t="s">
+    <row r="29" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="259" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="217"/>
-      <c r="C29" s="249" t="s">
+      <c r="B29" s="258"/>
+      <c r="C29" s="264" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="250"/>
-      <c r="E29" s="251"/>
-      <c r="F29" s="76" t="s">
+      <c r="D29" s="265"/>
+      <c r="E29" s="266"/>
+      <c r="F29" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="104" t="s">
+      <c r="G29" s="193"/>
+      <c r="H29" s="102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="248" t="s">
+    <row r="30" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="259" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="217"/>
-      <c r="C30" s="249" t="s">
+      <c r="B30" s="258"/>
+      <c r="C30" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="250"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="76" t="s">
+      <c r="D30" s="265"/>
+      <c r="E30" s="266"/>
+      <c r="F30" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="193"/>
+      <c r="H30" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="248" t="s">
+    <row r="31" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="217"/>
-      <c r="C31" s="249" t="s">
+      <c r="B31" s="258"/>
+      <c r="C31" s="264" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="250"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="76" t="s">
+      <c r="D31" s="265"/>
+      <c r="E31" s="266"/>
+      <c r="F31" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="193"/>
+      <c r="H31" s="102" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="248" t="s">
+    <row r="32" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="217"/>
-      <c r="C32" s="249" t="s">
+      <c r="B32" s="258"/>
+      <c r="C32" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="250"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="76" t="s">
+      <c r="D32" s="265"/>
+      <c r="E32" s="266"/>
+      <c r="F32" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="104" t="s">
+      <c r="G32" s="193"/>
+      <c r="H32" s="102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="248" t="s">
+    <row r="33" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="259" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="217"/>
-      <c r="C33" s="249" t="s">
+      <c r="B33" s="258"/>
+      <c r="C33" s="264" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="250"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="76" t="s">
+      <c r="D33" s="265"/>
+      <c r="E33" s="266"/>
+      <c r="F33" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="104" t="s">
+      <c r="G33" s="193"/>
+      <c r="H33" s="102" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="82" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="144" t="s">
+    <row r="34" spans="1:8" s="82" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="145"/>
-      <c r="C34" s="252" t="s">
+      <c r="B34" s="160"/>
+      <c r="C34" s="267" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="253"/>
-      <c r="E34" s="254"/>
-      <c r="F34" s="110" t="s">
+      <c r="D34" s="268"/>
+      <c r="E34" s="269"/>
+      <c r="F34" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="193"/>
+      <c r="H34" s="125" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="240" t="s">
+    <row r="35" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="270" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="241"/>
-      <c r="C35" s="241"/>
-      <c r="D35" s="241"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
-      <c r="G35" s="242"/>
-    </row>
-    <row r="36" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="140" t="s">
+      <c r="B35" s="271"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="271"/>
+      <c r="E35" s="271"/>
+      <c r="F35" s="271"/>
+      <c r="G35" s="271"/>
+      <c r="H35" s="272"/>
+    </row>
+    <row r="36" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="258" t="s">
+      <c r="B36" s="156"/>
+      <c r="C36" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="259"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="10" t="s">
+      <c r="D36" s="263"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="193"/>
+      <c r="H36" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="243" t="s">
+    <row r="37" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="244"/>
-      <c r="C37" s="216" t="s">
+      <c r="B37" s="255"/>
+      <c r="C37" s="256" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="255"/>
-      <c r="E37" s="217"/>
-      <c r="F37" s="102" t="s">
+      <c r="D37" s="257"/>
+      <c r="E37" s="258"/>
+      <c r="F37" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="104" t="s">
+      <c r="G37" s="193"/>
+      <c r="H37" s="102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="248" t="s">
+    <row r="38" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="259" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="217"/>
-      <c r="C38" s="216" t="s">
+      <c r="B38" s="258"/>
+      <c r="C38" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="255"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="102" t="s">
+      <c r="D38" s="257"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="193"/>
+      <c r="H38" s="102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="144" t="s">
+    <row r="39" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="145"/>
-      <c r="C39" s="256" t="s">
+      <c r="B39" s="160"/>
+      <c r="C39" s="260" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="257"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="261"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="105" t="s">
+      <c r="G39" s="193"/>
+      <c r="H39" s="103" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264" t="s">
+    <row r="40" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="237" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="265"/>
-      <c r="C40" s="266" t="s">
+      <c r="B40" s="238"/>
+      <c r="C40" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="267"/>
-      <c r="E40" s="268"/>
-      <c r="F40" s="266" t="s">
+      <c r="D40" s="240"/>
+      <c r="E40" s="241"/>
+      <c r="F40" s="239" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="268"/>
-    </row>
-    <row r="41" spans="1:7" s="82" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="269"/>
-      <c r="B41" s="270"/>
-      <c r="C41" s="273"/>
-      <c r="D41" s="274"/>
-      <c r="E41" s="275"/>
-      <c r="F41" s="273"/>
-      <c r="G41" s="275"/>
-    </row>
-    <row r="42" spans="1:7" s="82" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="271"/>
-      <c r="B42" s="272"/>
-      <c r="C42" s="276" t="s">
+      <c r="G40" s="240"/>
+      <c r="H40" s="241"/>
+    </row>
+    <row r="41" spans="1:8" s="82" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="242"/>
+      <c r="B41" s="243"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="246"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="248"/>
+    </row>
+    <row r="42" spans="1:8" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="242"/>
+      <c r="B42" s="243"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="219"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="218"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="190"/>
+    </row>
+    <row r="43" spans="1:8" s="82" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="244"/>
+      <c r="B43" s="245"/>
+      <c r="C43" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="277"/>
-      <c r="E42" s="278"/>
-      <c r="F42" s="276" t="s">
+      <c r="D43" s="250"/>
+      <c r="E43" s="251"/>
+      <c r="F43" s="249" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="278"/>
-    </row>
-    <row r="43" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="279"/>
-      <c r="F43" s="279"/>
-      <c r="G43" s="279"/>
-    </row>
-    <row r="44" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="G43" s="250"/>
+      <c r="H43" s="251"/>
+    </row>
+    <row r="44" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="107"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="252"/>
+      <c r="F44" s="252"/>
+      <c r="G44" s="252"/>
+      <c r="H44" s="252"/>
+    </row>
+    <row r="45" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="280"/>
-      <c r="F44" s="280"/>
-      <c r="G44" s="280"/>
-    </row>
-    <row r="45" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="260" t="s">
+      <c r="B45" s="108"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="253"/>
+      <c r="F45" s="253"/>
+      <c r="G45" s="253"/>
+      <c r="H45" s="253"/>
+    </row>
+    <row r="46" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="260"/>
-    </row>
-    <row r="47" spans="1:7" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="260" t="s">
+      <c r="B47" s="233"/>
+    </row>
+    <row r="48" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="233" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="260"/>
+      <c r="B48" s="233"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+  <mergeCells count="82">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-290NP-ABQR.xlsx
+++ b/backend/templates/UC-18gsm-290NP-ABQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC0B0D-F370-4EE8-BB93-E74D8A6A4159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E41D13-46DC-4F61-9DCA-D4E21FB52729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1827,6 +1827,120 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1836,166 +1950,130 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,143 +2094,245 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2198,6 +2378,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2213,187 +2396,10 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2955,7 +2961,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C41"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,35 +2975,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3018,12 +3024,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3035,19 +3041,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="162"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3059,64 +3065,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="152"/>
-      <c r="K5" s="153"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="138"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134" t="s">
+      <c r="A7" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="163" t="s">
+      <c r="H7" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="134"/>
-      <c r="K7" s="149"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136" t="s">
+      <c r="A8" s="156"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3518,11 +3524,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="145"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
       <c r="D39" s="35" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3557,11 +3563,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="141"/>
-      <c r="C40" s="142"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="162"/>
       <c r="D40" s="38">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3596,11 +3602,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="139"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="159"/>
       <c r="D41" s="41">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3641,8 +3647,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3659,8 +3665,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3669,11 +3675,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="130" t="s">
+      <c r="A44" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3685,11 +3691,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3700,9 +3706,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="130"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -3731,6 +3737,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3747,16 +3763,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41">
     <cfRule type="cellIs" dxfId="17" priority="13" operator="notBetween">
@@ -3828,35 +3834,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3877,18 +3883,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="156">
+      <c r="B4" s="141">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="181">
+      <c r="C4" s="215">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="176"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3906,25 +3912,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="169">
+      <c r="J4" s="216">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="170"/>
+      <c r="K4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="160">
+      <c r="B5" s="145">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="161">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3942,104 +3948,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="171">
+      <c r="J5" s="218">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="172"/>
+      <c r="K5" s="219"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="200"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="212" t="s">
+      <c r="A7" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="194" t="s">
+      <c r="E7" s="171"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="194" t="s">
+      <c r="H7" s="171"/>
+      <c r="I7" s="188" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="195"/>
-      <c r="K7" s="189" t="s">
+      <c r="J7" s="172"/>
+      <c r="K7" s="206" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="219" t="s">
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="220" t="s">
+      <c r="E8" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="177"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="177" t="s">
+      <c r="G8" s="189"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="178"/>
-      <c r="K8" s="190"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="207"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="218"/>
-      <c r="B9" s="219"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="201"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="190"/>
       <c r="I9" s="58" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="59">
         <v>290</v>
       </c>
-      <c r="K9" s="190"/>
+      <c r="K9" s="207"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="218"/>
-      <c r="B10" s="219"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="203"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="185"/>
       <c r="I10" s="60" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="61">
         <v>293</v>
       </c>
-      <c r="K10" s="191"/>
+      <c r="K10" s="208"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
@@ -4057,10 +4063,10 @@
       <c r="D11" s="64"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="176"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="221"/>
       <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4079,10 +4085,10 @@
       <c r="D12" s="68"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
       <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4101,10 +4107,10 @@
       <c r="D13" s="68"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="174"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
       <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4123,10 +4129,10 @@
       <c r="D14" s="68"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="174"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="201"/>
       <c r="K14" s="69"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4145,10 +4151,10 @@
       <c r="D15" s="68"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="174"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="201"/>
       <c r="K15" s="69"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,10 +4173,10 @@
       <c r="D16" s="64"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="174"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
       <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4189,10 +4195,10 @@
       <c r="D17" s="68"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
       <c r="K17" s="69"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,10 +4217,10 @@
       <c r="D18" s="68"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="201"/>
       <c r="K18" s="69"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4233,10 +4239,10 @@
       <c r="D19" s="68"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="201"/>
       <c r="K19" s="69"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4255,10 +4261,10 @@
       <c r="D20" s="68"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="174"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="201"/>
       <c r="K20" s="69"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4277,10 +4283,10 @@
       <c r="D21" s="68"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="174"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="201"/>
       <c r="K21" s="69"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,10 +4305,10 @@
       <c r="D22" s="68"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="201"/>
       <c r="K22" s="69"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4321,10 +4327,10 @@
       <c r="D23" s="68"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="201"/>
       <c r="K23" s="69"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4343,10 +4349,10 @@
       <c r="D24" s="68"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="201"/>
       <c r="K24" s="69"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4365,10 +4371,10 @@
       <c r="D25" s="68"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="174"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="201"/>
       <c r="K25" s="69"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4387,10 +4393,10 @@
       <c r="D26" s="68"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="174"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="201"/>
       <c r="K26" s="69"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4409,10 +4415,10 @@
       <c r="D27" s="68"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="174"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="201"/>
       <c r="K27" s="69"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4431,10 +4437,10 @@
       <c r="D28" s="68"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201"/>
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4453,10 +4459,10 @@
       <c r="D29" s="68"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="201"/>
       <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,10 +4481,10 @@
       <c r="D30" s="68"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="201"/>
       <c r="K30" s="69"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4497,10 +4503,10 @@
       <c r="D31" s="68"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="201"/>
       <c r="K31" s="69"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4519,10 +4525,10 @@
       <c r="D32" s="68"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="201"/>
       <c r="K32" s="69"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4541,10 +4547,10 @@
       <c r="D33" s="68"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="201"/>
       <c r="K33" s="69"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4563,10 +4569,10 @@
       <c r="D34" s="68"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="201"/>
       <c r="K34" s="69"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,10 +4591,10 @@
       <c r="D35" s="68"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="174"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="201"/>
       <c r="K35" s="69"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4607,10 +4613,10 @@
       <c r="D36" s="68"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="201"/>
       <c r="K36" s="69"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,10 +4635,10 @@
       <c r="D37" s="68"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="201"/>
       <c r="K37" s="69"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,10 +4657,10 @@
       <c r="D38" s="68"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="201"/>
       <c r="K38" s="69"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4673,10 +4679,10 @@
       <c r="D39" s="68"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="174"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="201"/>
       <c r="K39" s="69"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4695,18 +4701,18 @@
       <c r="D40" s="68"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="201"/>
       <c r="K40" s="69"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
+      <c r="B41" s="178"/>
+      <c r="C41" s="178"/>
       <c r="D41" s="75" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4719,27 +4725,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="204" t="e">
+      <c r="G41" s="192" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="205"/>
-      <c r="I41" s="198" t="e">
+      <c r="H41" s="193"/>
+      <c r="I41" s="204" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="199"/>
+      <c r="J41" s="205"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="215" t="s">
+      <c r="A42" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="216"/>
-      <c r="C42" s="216"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
       <c r="D42" s="76">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4752,27 +4758,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="187">
+      <c r="G42" s="213">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="188"/>
-      <c r="I42" s="192">
+      <c r="H42" s="214"/>
+      <c r="I42" s="198">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="193"/>
+      <c r="J42" s="199"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="210" t="s">
+      <c r="A43" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="211"/>
-      <c r="C43" s="211"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
       <c r="D43" s="77">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4785,16 +4791,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="185">
+      <c r="G43" s="211">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="186"/>
-      <c r="I43" s="183">
+      <c r="H43" s="212"/>
+      <c r="I43" s="209">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="184"/>
+      <c r="J43" s="210"/>
       <c r="K43" s="79">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4804,8 +4810,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4822,8 +4828,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4832,11 +4838,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4849,11 +4855,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="130" t="s">
+      <c r="A47" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4908,19 +4914,71 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H10"/>
     <mergeCell ref="G41:H41"/>
@@ -4937,71 +4995,19 @@
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5062,35 +5068,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5111,18 +5117,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="156">
+      <c r="B4" s="141">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="181">
+      <c r="C4" s="215">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="176"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5140,25 +5146,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="169">
+      <c r="J4" s="216">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="170"/>
+      <c r="K4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="160">
+      <c r="B5" s="145">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="161">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5176,81 +5182,81 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="171">
+      <c r="J5" s="218">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="172"/>
+      <c r="K5" s="219"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="165"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="151"/>
       <c r="H6" s="111"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="189"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="206"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="200"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="212" t="s">
+      <c r="A7" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="226" t="s">
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="218"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="190"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="207"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="232" t="s">
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="229" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="220" t="s">
+      <c r="E8" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="220" t="s">
+      <c r="F8" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="220" t="s">
+      <c r="G8" s="186" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="227" t="s">
+      <c r="H8" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="218"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="190"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="207"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="222"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="190"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="207"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
@@ -5270,9 +5276,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="113"/>
       <c r="H10" s="114"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="190"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="207"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66">
@@ -5292,9 +5298,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="116"/>
       <c r="H11" s="117"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="190"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="207"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66">
@@ -5314,9 +5320,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="116"/>
       <c r="H12" s="117"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="190"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="207"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66">
@@ -5336,9 +5342,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="113"/>
       <c r="H13" s="117"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="190"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="207"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66">
@@ -5358,9 +5364,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="116"/>
       <c r="H14" s="117"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="190"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="207"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66">
@@ -5380,9 +5386,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="116"/>
       <c r="H15" s="117"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="190"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="207"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66">
@@ -5402,9 +5408,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="116"/>
       <c r="H16" s="117"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="190"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="207"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66">
@@ -5424,9 +5430,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="116"/>
       <c r="H17" s="117"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="190"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="207"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66">
@@ -5446,9 +5452,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="116"/>
       <c r="H18" s="117"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="190"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="207"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66">
@@ -5468,9 +5474,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="116"/>
       <c r="H19" s="117"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="190"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="207"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="72">
@@ -5490,9 +5496,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="116"/>
       <c r="H20" s="117"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="190"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="207"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66">
@@ -5512,9 +5518,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="116"/>
       <c r="H21" s="117"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="190"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="207"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66">
@@ -5534,9 +5540,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="116"/>
       <c r="H22" s="117"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="190"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="207"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
@@ -5556,9 +5562,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="116"/>
       <c r="H23" s="117"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="190"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="207"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66">
@@ -5578,9 +5584,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="116"/>
       <c r="H24" s="117"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="190"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="207"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
@@ -5600,9 +5606,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="116"/>
       <c r="H25" s="117"/>
-      <c r="I25" s="218"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="190"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="207"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66">
@@ -5622,9 +5628,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="116"/>
       <c r="H26" s="117"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="190"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="207"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66">
@@ -5644,9 +5650,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="116"/>
       <c r="H27" s="117"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="190"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="207"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66">
@@ -5666,9 +5672,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="116"/>
       <c r="H28" s="117"/>
-      <c r="I28" s="218"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="190"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="207"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66">
@@ -5688,9 +5694,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="116"/>
       <c r="H29" s="117"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="190"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="207"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="72">
@@ -5710,9 +5716,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="116"/>
       <c r="H30" s="117"/>
-      <c r="I30" s="218"/>
-      <c r="J30" s="201"/>
-      <c r="K30" s="190"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="207"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66">
@@ -5732,9 +5738,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="116"/>
       <c r="H31" s="117"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="201"/>
-      <c r="K31" s="190"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="207"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66">
@@ -5754,9 +5760,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="116"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="201"/>
-      <c r="K32" s="190"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="207"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66">
@@ -5776,9 +5782,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="116"/>
       <c r="H33" s="117"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="201"/>
-      <c r="K33" s="190"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="207"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66">
@@ -5798,9 +5804,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="116"/>
       <c r="H34" s="117"/>
-      <c r="I34" s="218"/>
-      <c r="J34" s="201"/>
-      <c r="K34" s="190"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="190"/>
+      <c r="K34" s="207"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66">
@@ -5820,9 +5826,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="116"/>
       <c r="H35" s="117"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="201"/>
-      <c r="K35" s="190"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="207"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66">
@@ -5842,9 +5848,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="116"/>
       <c r="H36" s="117"/>
-      <c r="I36" s="218"/>
-      <c r="J36" s="201"/>
-      <c r="K36" s="190"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="207"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66">
@@ -5864,9 +5870,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="116"/>
       <c r="H37" s="117"/>
-      <c r="I37" s="218"/>
-      <c r="J37" s="201"/>
-      <c r="K37" s="190"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="207"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66">
@@ -5886,9 +5892,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="116"/>
       <c r="H38" s="117"/>
-      <c r="I38" s="218"/>
-      <c r="J38" s="201"/>
-      <c r="K38" s="190"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="190"/>
+      <c r="K38" s="207"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="73">
@@ -5908,16 +5914,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="116"/>
       <c r="H39" s="117"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="201"/>
-      <c r="K39" s="190"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="207"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="223" t="s">
+      <c r="A40" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="224"/>
-      <c r="C40" s="225"/>
+      <c r="B40" s="231"/>
+      <c r="C40" s="232"/>
       <c r="D40" s="118" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -5938,16 +5944,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="218"/>
-      <c r="J40" s="201"/>
-      <c r="K40" s="190"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="207"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="142"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="162"/>
       <c r="D41" s="120">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5968,16 +5974,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="218"/>
-      <c r="J41" s="201"/>
-      <c r="K41" s="190"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="207"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="229" t="s">
+      <c r="A42" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="230"/>
-      <c r="C42" s="231"/>
+      <c r="B42" s="226"/>
+      <c r="C42" s="227"/>
       <c r="D42" s="122">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -5998,16 +6004,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="222"/>
-      <c r="J42" s="203"/>
-      <c r="K42" s="191"/>
+      <c r="I42" s="228"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="208"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6024,8 +6030,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6034,11 +6040,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6051,11 +6057,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6080,15 +6086,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A7:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="J4:K4"/>
@@ -6105,6 +6102,15 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A40:C40"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6143,7 +6149,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6157,16 +6163,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="298"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="240"/>
     </row>
     <row r="2" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83"/>
@@ -6181,40 +6187,40 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="294" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="236"/>
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="296"/>
     </row>
     <row r="4" spans="1:8" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="190"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="207"/>
     </row>
     <row r="5" spans="1:8" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="241" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="301"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="243"/>
     </row>
     <row r="6" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
@@ -6226,16 +6232,16 @@
       <c r="C6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="256">
+      <c r="D6" s="233">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="258"/>
-      <c r="F6" s="283" t="s">
+      <c r="E6" s="235"/>
+      <c r="F6" s="246" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="284"/>
-      <c r="H6" s="280">
+      <c r="G6" s="247"/>
+      <c r="H6" s="244">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6248,14 +6254,14 @@
       <c r="C7" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="256">
+      <c r="D7" s="233">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="258"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="302"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="245"/>
     </row>
     <row r="8" spans="1:8" s="82" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
@@ -6268,16 +6274,16 @@
       <c r="C8" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="277">
+      <c r="D8" s="263">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="277"/>
-      <c r="F8" s="283" t="s">
+      <c r="E8" s="263"/>
+      <c r="F8" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="284"/>
-      <c r="H8" s="280">
+      <c r="G8" s="247"/>
+      <c r="H8" s="244">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6290,16 +6296,16 @@
         <f>Page1!G44</f>
         <v>461347000</v>
       </c>
-      <c r="C9" s="278" t="s">
+      <c r="C9" s="266" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="283" t="s">
+      <c r="D9" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="284"/>
-      <c r="F9" s="305"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="281"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="270"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="264"/>
     </row>
     <row r="10" spans="1:8" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="93" t="s">
@@ -6309,36 +6315,36 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="279"/>
-      <c r="D10" s="285"/>
-      <c r="E10" s="286"/>
-      <c r="F10" s="285"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="282"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="265"/>
     </row>
     <row r="11" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="287" t="s">
+      <c r="A11" s="250" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="289" t="s">
+      <c r="B11" s="252" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="291" t="s">
+      <c r="C11" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="292"/>
-      <c r="E11" s="293"/>
-      <c r="F11" s="307" t="s">
+      <c r="D11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="259" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="308"/>
-      <c r="H11" s="294" t="s">
+      <c r="G11" s="260"/>
+      <c r="H11" s="257" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="288"/>
-      <c r="B12" s="290"/>
+      <c r="A12" s="251"/>
+      <c r="B12" s="253"/>
       <c r="C12" s="95" t="s">
         <v>63</v>
       </c>
@@ -6348,9 +6354,9 @@
       <c r="E12" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="309"/>
-      <c r="G12" s="310"/>
-      <c r="H12" s="295"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="258"/>
     </row>
     <row r="13" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
@@ -6368,11 +6374,11 @@
       <c r="E13" s="98">
         <v>20</v>
       </c>
-      <c r="F13" s="311" t="e">
+      <c r="F13" s="236" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="312"/>
+      <c r="G13" s="237"/>
       <c r="H13" s="18" t="s">
         <v>68</v>
       </c>
@@ -6393,11 +6399,11 @@
       <c r="E14" s="101">
         <v>28</v>
       </c>
-      <c r="F14" s="192" t="e">
+      <c r="F14" s="198" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="193"/>
+      <c r="G14" s="199"/>
       <c r="H14" s="102" t="s">
         <v>71</v>
       </c>
@@ -6418,12 +6424,12 @@
       <c r="E15" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="192" t="e">
+      <c r="F15" s="198" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="193"/>
-      <c r="H15" s="273" t="s">
+      <c r="G15" s="199"/>
+      <c r="H15" s="272" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6443,12 +6449,12 @@
       <c r="E16" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="192" t="e">
+      <c r="F16" s="198" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="193"/>
-      <c r="H16" s="227"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="223"/>
     </row>
     <row r="17" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
@@ -6466,12 +6472,12 @@
       <c r="E17" s="101">
         <v>1200</v>
       </c>
-      <c r="F17" s="192" t="e">
+      <c r="F17" s="198" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="193"/>
-      <c r="H17" s="227"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="223"/>
     </row>
     <row r="18" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
@@ -6489,12 +6495,12 @@
       <c r="E18" s="101">
         <v>1000</v>
       </c>
-      <c r="F18" s="192" t="e">
+      <c r="F18" s="198" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="193"/>
-      <c r="H18" s="227"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="223"/>
     </row>
     <row r="19" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
@@ -6512,12 +6518,12 @@
       <c r="E19" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="192" t="e">
+      <c r="F19" s="198" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="193"/>
-      <c r="H19" s="227"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="223"/>
     </row>
     <row r="20" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
@@ -6535,12 +6541,12 @@
       <c r="E20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="192" t="e">
+      <c r="F20" s="198" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="193"/>
-      <c r="H20" s="227"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="223"/>
     </row>
     <row r="21" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
@@ -6558,12 +6564,12 @@
       <c r="E21" s="38">
         <v>0.6</v>
       </c>
-      <c r="F21" s="192" t="e">
+      <c r="F21" s="315" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="193"/>
-      <c r="H21" s="227"/>
+      <c r="G21" s="316"/>
+      <c r="H21" s="223"/>
     </row>
     <row r="22" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
@@ -6581,12 +6587,12 @@
       <c r="E22" s="38">
         <v>1.4</v>
       </c>
-      <c r="F22" s="192" t="e">
+      <c r="F22" s="315" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="193"/>
-      <c r="H22" s="149"/>
+      <c r="G22" s="316"/>
+      <c r="H22" s="134"/>
     </row>
     <row r="23" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
@@ -6604,11 +6610,11 @@
       <c r="E23" s="39">
         <v>400</v>
       </c>
-      <c r="F23" s="192" t="e">
+      <c r="F23" s="198" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="193"/>
+      <c r="G23" s="199"/>
       <c r="H23" s="102" t="s">
         <v>85</v>
       </c>
@@ -6631,11 +6637,11 @@
         <f>Page2!J10</f>
         <v>293</v>
       </c>
-      <c r="F24" s="192" t="e">
+      <c r="F24" s="198" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="193"/>
+      <c r="G24" s="199"/>
       <c r="H24" s="102" t="s">
         <v>88</v>
       </c>
@@ -6656,10 +6662,10 @@
       <c r="E25" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="192">
+      <c r="F25" s="198">
         <v>6000</v>
       </c>
-      <c r="G25" s="193"/>
+      <c r="G25" s="199"/>
       <c r="H25" s="102" t="s">
         <v>91</v>
       </c>
@@ -6680,296 +6686,296 @@
       <c r="E26" s="106">
         <v>450</v>
       </c>
-      <c r="F26" s="192" t="e">
+      <c r="F26" s="198" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="193"/>
+      <c r="G26" s="199"/>
       <c r="H26" s="103" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="270" t="s">
+      <c r="A27" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="271"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="271"/>
-      <c r="H27" s="272"/>
+      <c r="B27" s="274"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="274"/>
+      <c r="G27" s="274"/>
+      <c r="H27" s="275"/>
     </row>
     <row r="28" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="254" t="s">
+      <c r="A28" s="276" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="255"/>
-      <c r="C28" s="274" t="s">
+      <c r="B28" s="249"/>
+      <c r="C28" s="277" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="275"/>
-      <c r="E28" s="276"/>
-      <c r="F28" s="313" t="s">
+      <c r="D28" s="278"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="284" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="314"/>
+      <c r="G28" s="285"/>
       <c r="H28" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="259" t="s">
+      <c r="A29" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="258"/>
-      <c r="C29" s="264" t="s">
+      <c r="B29" s="235"/>
+      <c r="C29" s="281" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="265"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="192" t="s">
+      <c r="D29" s="282"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="193"/>
+      <c r="G29" s="199"/>
       <c r="H29" s="102" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="259" t="s">
+      <c r="A30" s="280" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="258"/>
-      <c r="C30" s="264" t="s">
+      <c r="B30" s="235"/>
+      <c r="C30" s="281" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="265"/>
-      <c r="E30" s="266"/>
-      <c r="F30" s="192" t="s">
+      <c r="D30" s="282"/>
+      <c r="E30" s="283"/>
+      <c r="F30" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="193"/>
+      <c r="G30" s="199"/>
       <c r="H30" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="259" t="s">
+      <c r="A31" s="280" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="258"/>
-      <c r="C31" s="264" t="s">
+      <c r="B31" s="235"/>
+      <c r="C31" s="281" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="265"/>
-      <c r="E31" s="266"/>
-      <c r="F31" s="192" t="s">
+      <c r="D31" s="282"/>
+      <c r="E31" s="283"/>
+      <c r="F31" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="193"/>
+      <c r="G31" s="199"/>
       <c r="H31" s="102" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="259" t="s">
+      <c r="A32" s="280" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="258"/>
-      <c r="C32" s="264" t="s">
+      <c r="B32" s="235"/>
+      <c r="C32" s="281" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="265"/>
-      <c r="E32" s="266"/>
-      <c r="F32" s="192" t="s">
+      <c r="D32" s="282"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="193"/>
+      <c r="G32" s="199"/>
       <c r="H32" s="102" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="259" t="s">
+      <c r="A33" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="258"/>
-      <c r="C33" s="264" t="s">
+      <c r="B33" s="235"/>
+      <c r="C33" s="281" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="265"/>
-      <c r="E33" s="266"/>
-      <c r="F33" s="192" t="s">
+      <c r="D33" s="282"/>
+      <c r="E33" s="283"/>
+      <c r="F33" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="193"/>
+      <c r="G33" s="199"/>
       <c r="H33" s="102" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="82" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="267" t="s">
+      <c r="B34" s="145"/>
+      <c r="C34" s="291" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="268"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="192" t="s">
+      <c r="D34" s="292"/>
+      <c r="E34" s="293"/>
+      <c r="F34" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="193"/>
+      <c r="G34" s="199"/>
       <c r="H34" s="125" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="270" t="s">
+      <c r="A35" s="273" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="271"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="271"/>
-      <c r="H35" s="272"/>
+      <c r="B35" s="274"/>
+      <c r="C35" s="274"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="274"/>
+      <c r="F35" s="274"/>
+      <c r="G35" s="274"/>
+      <c r="H35" s="275"/>
     </row>
     <row r="36" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="156"/>
-      <c r="C36" s="262" t="s">
+      <c r="B36" s="141"/>
+      <c r="C36" s="288" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="263"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="192" t="s">
+      <c r="D36" s="289"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="193"/>
+      <c r="G36" s="199"/>
       <c r="H36" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="276" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="255"/>
-      <c r="C37" s="256" t="s">
+      <c r="B37" s="249"/>
+      <c r="C37" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="257"/>
-      <c r="E37" s="258"/>
-      <c r="F37" s="192" t="s">
+      <c r="D37" s="234"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="193"/>
+      <c r="G37" s="199"/>
       <c r="H37" s="102" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="259" t="s">
+      <c r="A38" s="280" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="256" t="s">
+      <c r="B38" s="235"/>
+      <c r="C38" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="257"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="192" t="s">
+      <c r="D38" s="234"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="193"/>
+      <c r="G38" s="199"/>
       <c r="H38" s="102" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="260" t="s">
+      <c r="B39" s="145"/>
+      <c r="C39" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="261"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="192" t="s">
+      <c r="D39" s="287"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="193"/>
+      <c r="G39" s="199"/>
       <c r="H39" s="103" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="82" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="237" t="s">
+      <c r="A40" s="297" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="238"/>
-      <c r="C40" s="239" t="s">
+      <c r="B40" s="298"/>
+      <c r="C40" s="299" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="240"/>
-      <c r="E40" s="241"/>
-      <c r="F40" s="239" t="s">
+      <c r="D40" s="300"/>
+      <c r="E40" s="301"/>
+      <c r="F40" s="299" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="240"/>
-      <c r="H40" s="241"/>
+      <c r="G40" s="300"/>
+      <c r="H40" s="301"/>
     </row>
     <row r="41" spans="1:8" s="82" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="242"/>
-      <c r="B41" s="243"/>
-      <c r="C41" s="246"/>
-      <c r="D41" s="247"/>
-      <c r="E41" s="248"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="303"/>
-      <c r="H41" s="248"/>
-    </row>
-    <row r="42" spans="1:8" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="242"/>
-      <c r="B42" s="243"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="219"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="218"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="190"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="303"/>
+      <c r="C41" s="306"/>
+      <c r="D41" s="307"/>
+      <c r="E41" s="308"/>
+      <c r="F41" s="306"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="308"/>
+    </row>
+    <row r="42" spans="1:8" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="302"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="207"/>
     </row>
     <row r="43" spans="1:8" s="82" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="244"/>
-      <c r="B43" s="245"/>
-      <c r="C43" s="249" t="s">
+      <c r="A43" s="304"/>
+      <c r="B43" s="305"/>
+      <c r="C43" s="310" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="250"/>
-      <c r="E43" s="251"/>
-      <c r="F43" s="249" t="s">
+      <c r="D43" s="311"/>
+      <c r="E43" s="312"/>
+      <c r="F43" s="310" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="250"/>
-      <c r="H43" s="251"/>
+      <c r="G43" s="311"/>
+      <c r="H43" s="312"/>
     </row>
     <row r="44" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="107"/>
       <c r="B44" s="107"/>
       <c r="C44" s="107"/>
       <c r="D44" s="107"/>
-      <c r="E44" s="252"/>
-      <c r="F44" s="252"/>
-      <c r="G44" s="252"/>
-      <c r="H44" s="252"/>
+      <c r="E44" s="313"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="313"/>
     </row>
     <row r="45" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
@@ -6978,59 +6984,57 @@
       <c r="B45" s="108"/>
       <c r="C45" s="109"/>
       <c r="D45" s="107"/>
-      <c r="E45" s="253"/>
-      <c r="F45" s="253"/>
-      <c r="G45" s="253"/>
-      <c r="H45" s="253"/>
+      <c r="E45" s="314"/>
+      <c r="F45" s="314"/>
+      <c r="G45" s="314"/>
+      <c r="H45" s="314"/>
     </row>
     <row r="46" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="233" t="s">
+      <c r="A47" s="290" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="233"/>
+      <c r="B47" s="290"/>
     </row>
     <row r="48" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="233" t="s">
+      <c r="A48" s="290" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="233"/>
+      <c r="B48" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="H15:H22"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A28:B28"/>
@@ -7047,39 +7051,41 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A41:B43"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
